--- a/Session2/Back Propogation.xlsx
+++ b/Session2/Back Propogation.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="56">
   <si>
     <t>E1</t>
   </si>
@@ -31,12 +31,6 @@
   </si>
   <si>
     <t>h2 = (w3*i1 + w4*i2</t>
-  </si>
-  <si>
-    <t>o1 = (w5*oh1 + w6*oh2)</t>
-  </si>
-  <si>
-    <t>o2 = (w7*oh1 + w8*oh2)</t>
   </si>
   <si>
     <r>
@@ -171,6 +165,80 @@
   </si>
   <si>
     <t>lr = 0.5</t>
+  </si>
+  <si>
+    <t>o1 = (w5*a_h1 + w6*a_h2)</t>
+  </si>
+  <si>
+    <t>o2 = (w7*a_h1 + w8*a_h2)</t>
+  </si>
+  <si>
+    <t>∂E_t/∂w5 = ∂E1 /∂w5 = (∂E1/∂a_o1)*(∂a_o1/∂o1)*(∂o1/∂w5)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">∂E1/∂a_o1 = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>∂(½*(t1 - a_01)²)/∂a_o1 = (t1 - a_o1)*(-1) = (a_o1 - t1)</t>
+    </r>
+  </si>
+  <si>
+    <t>(∂a_o1/∂o1) = ∂(σ(o1))/∂o1 = σ(o1) * (1 - σ(o1)) = a_o1*(1-a_o1)</t>
+  </si>
+  <si>
+    <t>(∂o1/∂w5) = a_h1</t>
+  </si>
+  <si>
+    <t>∂E_t/∂w5 = (a_o1 - t1) * a_o1 * (1 - a_o1) * a_h1</t>
+  </si>
+  <si>
+    <t>∂E_t/∂w6 = (a_o1 - t1) * a_o1 * (1 - a_o1) * a_h2</t>
+  </si>
+  <si>
+    <t>∂E_t/∂w7 = (a_o2 - t2) * a_o2 * (1 - a_o2) * a_h1</t>
+  </si>
+  <si>
+    <t>∂E_t/∂w8 = (a_o2 - t2) * a_o2 * (1 - a_o2) * a_h2</t>
+  </si>
+  <si>
+    <t>∂E_t/∂a_h1 = ∂(E1 + E2)/∂a_h1</t>
+  </si>
+  <si>
+    <t>∂E1/∂a_h1 = ∂E1/∂a_o1 * ∂a_o1/∂o1 * ∂o1/∂a_h1 = (a_o1 - t1)*a_o1*(1 - a_o1)*w5</t>
+  </si>
+  <si>
+    <t>∂E2/∂a_h1 = ∂E2/∂a_o2 * ∂a_o2/∂o2 * ∂o2/∂a_h1 = (a_o2 - t2)*a_o2*(1 - a_o2)*w7</t>
+  </si>
+  <si>
+    <t>∂E_t/∂w1 = ∂ET/∂a_h1 * a_h1 * (1 - a_h1) * ∂h1/∂w1</t>
+  </si>
+  <si>
+    <t>∂E_t/∂w1 = ET/a_o1 * a_o1/o1 * o1/a_h1 * a_h1/h1 * h1/w1 = ∂ET/∂a_h1 * ∂a_h1/∂h1 * ∂h1/∂w1</t>
+  </si>
+  <si>
+    <t>∂E_t/∂w1 = ∂ET/∂a_h1 * a_h1 * (1 - a_h1) * i1</t>
+  </si>
+  <si>
+    <t>∂E_t/∂w2 = ∂ET/∂a_h1 * a_h1 * (1 - a_h1) * i2</t>
+  </si>
+  <si>
+    <t>∂E_t/∂w3 = ∂ET/∂a_h2 * a_h2 * (1 - a_h2) * i1</t>
+  </si>
+  <si>
+    <t>∂E_t/∂w4 = ∂ET/∂a_h2 * a_h2 * (1 - a_h2) * i2</t>
+  </si>
+  <si>
+    <t>∂E_1/∂a_h2 = (a_o2 - t2) * a_o2 * (1 - a_o2) * w8</t>
+  </si>
+  <si>
+    <t>(a_o1 - t1) * a_o1 * (1 - a_o1) * w6</t>
   </si>
 </sst>
 </file>
@@ -212,15 +280,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -2571,33 +2642,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:W30"/>
+  <dimension ref="A2:W36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="H40" sqref="H40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="10" max="10" width="9" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="2:15">
+    <row r="2" spans="2:20">
       <c r="N2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="O2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
-    <row r="3" spans="2:15">
+    <row r="3" spans="2:20">
       <c r="N3">
         <v>0.01</v>
       </c>
     </row>
-    <row r="4" spans="2:15">
+    <row r="4" spans="2:20">
       <c r="N4">
         <v>0.99</v>
       </c>
     </row>
-    <row r="5" spans="2:15">
+    <row r="5" spans="2:20">
       <c r="B5" s="1">
         <v>0.05</v>
       </c>
@@ -2605,207 +2679,350 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="2:15">
+    <row r="6" spans="2:20">
+      <c r="N6" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="O6" s="4"/>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="4"/>
+      <c r="R6" s="4"/>
+      <c r="S6" s="4"/>
+    </row>
+    <row r="7" spans="2:20">
+      <c r="N7" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="2"/>
+      <c r="S7" s="2"/>
+      <c r="T7" s="2"/>
+    </row>
+    <row r="8" spans="2:20">
+      <c r="N8" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="2"/>
+      <c r="S8" s="2"/>
+      <c r="T8" s="2"/>
+    </row>
+    <row r="9" spans="2:20">
       <c r="K9" t="s">
         <v>1</v>
       </c>
+      <c r="N9" t="s">
+        <v>40</v>
+      </c>
     </row>
-    <row r="12" spans="2:15">
+    <row r="10" spans="2:20">
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="2"/>
+      <c r="Q10" s="2"/>
+      <c r="R10" s="2"/>
+      <c r="S10" s="2"/>
+      <c r="T10" s="2"/>
+    </row>
+    <row r="11" spans="2:20">
+      <c r="N11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="2:20">
       <c r="B12" s="1">
         <v>0.1</v>
       </c>
+      <c r="N12" t="s">
+        <v>42</v>
+      </c>
     </row>
-    <row r="16" spans="2:15">
-      <c r="C16" s="2" t="s">
+    <row r="13" spans="2:20">
+      <c r="N13" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="2:20">
+      <c r="N14" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="2:20">
+      <c r="N16" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="17" spans="3:15">
+      <c r="O17" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="3:15">
+      <c r="C20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D16" s="2"/>
+      <c r="D20" s="3"/>
+      <c r="N20" t="s">
+        <v>45</v>
+      </c>
     </row>
-    <row r="17" spans="1:23">
-      <c r="C17" s="2" t="s">
+    <row r="21" spans="3:15">
+      <c r="C21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D17" s="2"/>
+      <c r="D21" s="3"/>
+      <c r="N21" t="s">
+        <v>46</v>
+      </c>
     </row>
-    <row r="18" spans="1:23">
-      <c r="C18" t="s">
+    <row r="22" spans="3:15">
+      <c r="C22" t="s">
+        <v>31</v>
+      </c>
+      <c r="N22" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="23" spans="3:15">
+      <c r="C23" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="24" spans="3:15">
+      <c r="C24" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="N24" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="25" spans="3:15">
+      <c r="C25" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="N25" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15">
+      <c r="C26" t="s">
+        <v>5</v>
+      </c>
+      <c r="N26" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" spans="3:15">
+      <c r="C27" t="s">
+        <v>6</v>
+      </c>
+      <c r="N27" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="28" spans="3:15">
+      <c r="C28" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D28" s="2"/>
+      <c r="N28" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15">
+      <c r="C29" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D29" s="2"/>
+      <c r="N29" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15">
+      <c r="C30" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D30" s="2"/>
+    </row>
+    <row r="31" spans="3:15">
+      <c r="E31" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23">
+      <c r="A35" t="s">
+        <v>12</v>
+      </c>
+      <c r="B35" t="s">
+        <v>13</v>
+      </c>
+      <c r="C35" t="s">
+        <v>14</v>
+      </c>
+      <c r="D35" t="s">
+        <v>15</v>
+      </c>
+      <c r="E35" t="s">
+        <v>16</v>
+      </c>
+      <c r="F35" t="s">
+        <v>17</v>
+      </c>
+      <c r="G35" t="s">
+        <v>18</v>
+      </c>
+      <c r="H35" t="s">
+        <v>19</v>
+      </c>
+      <c r="I35" t="s">
+        <v>2</v>
+      </c>
+      <c r="J35" t="s">
+        <v>21</v>
+      </c>
+      <c r="K35" t="s">
+        <v>20</v>
+      </c>
+      <c r="L35" t="s">
+        <v>22</v>
+      </c>
+      <c r="M35" t="s">
+        <v>23</v>
+      </c>
+      <c r="N35" t="s">
+        <v>24</v>
+      </c>
+      <c r="O35" t="s">
+        <v>25</v>
+      </c>
+      <c r="P35" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>27</v>
+      </c>
+      <c r="R35" t="s">
+        <v>28</v>
+      </c>
+      <c r="S35" t="s">
+        <v>29</v>
+      </c>
+      <c r="T35" t="s">
+        <v>30</v>
+      </c>
+      <c r="U35" t="s">
+        <v>0</v>
+      </c>
+      <c r="V35" t="s">
+        <v>1</v>
+      </c>
+      <c r="W35" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="19" spans="1:23">
-      <c r="C19" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="20" spans="1:23">
-      <c r="C20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-    </row>
-    <row r="21" spans="1:23">
-      <c r="C21" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-    </row>
-    <row r="22" spans="1:23">
-      <c r="C22" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="23" spans="1:23">
-      <c r="C23" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="24" spans="1:23">
-      <c r="C24" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D24" s="3"/>
-    </row>
-    <row r="25" spans="1:23">
-      <c r="C25" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D25" s="3"/>
-    </row>
-    <row r="26" spans="1:23">
-      <c r="C26" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D26" s="3"/>
-    </row>
-    <row r="27" spans="1:23">
-      <c r="E27" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="29" spans="1:23">
-      <c r="A29" t="s">
-        <v>14</v>
-      </c>
-      <c r="B29" t="s">
-        <v>15</v>
-      </c>
-      <c r="C29" t="s">
-        <v>16</v>
-      </c>
-      <c r="D29" t="s">
-        <v>17</v>
-      </c>
-      <c r="E29" t="s">
-        <v>18</v>
-      </c>
-      <c r="F29" t="s">
-        <v>19</v>
-      </c>
-      <c r="G29" t="s">
-        <v>20</v>
-      </c>
-      <c r="H29" t="s">
-        <v>21</v>
-      </c>
-      <c r="I29" t="s">
-        <v>2</v>
-      </c>
-      <c r="J29" t="s">
-        <v>23</v>
-      </c>
-      <c r="K29" t="s">
-        <v>22</v>
-      </c>
-      <c r="L29" t="s">
-        <v>24</v>
-      </c>
-      <c r="M29" t="s">
-        <v>25</v>
-      </c>
-      <c r="N29" t="s">
-        <v>26</v>
-      </c>
-      <c r="O29" t="s">
-        <v>27</v>
-      </c>
-      <c r="P29" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q29" t="s">
-        <v>29</v>
-      </c>
-      <c r="R29" t="s">
-        <v>30</v>
-      </c>
-      <c r="S29" t="s">
-        <v>31</v>
-      </c>
-      <c r="T29" t="s">
-        <v>32</v>
-      </c>
-      <c r="U29" t="s">
-        <v>0</v>
-      </c>
-      <c r="V29" t="s">
-        <v>1</v>
-      </c>
-      <c r="W29" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="30" spans="1:23">
-      <c r="A30">
+    <row r="36" spans="1:23">
+      <c r="A36">
         <v>0.01</v>
       </c>
-      <c r="B30">
+      <c r="B36">
         <v>0.99</v>
       </c>
-      <c r="C30">
+      <c r="C36">
         <v>0.05</v>
       </c>
-      <c r="D30">
+      <c r="D36">
         <v>0.1</v>
       </c>
-      <c r="E30">
+      <c r="E36">
         <v>0.15</v>
       </c>
-      <c r="F30">
+      <c r="F36">
         <v>0.2</v>
       </c>
-      <c r="G30">
+      <c r="G36">
         <v>0.25</v>
       </c>
-      <c r="H30">
+      <c r="H36">
         <v>0.3</v>
       </c>
-      <c r="I30">
-        <f>E30*C30 + F30*D30</f>
+      <c r="I36">
+        <f>E36*C36 + F36*D36</f>
         <v>2.7500000000000004E-2</v>
       </c>
-      <c r="M30">
+      <c r="J36">
+        <f xml:space="preserve"> 1/(1 + EXP(-I36))</f>
+        <v>0.50687456676453424</v>
+      </c>
+      <c r="K36">
+        <f>G36*C36 + H36*D36</f>
+        <v>4.2499999999999996E-2</v>
+      </c>
+      <c r="L36">
+        <f xml:space="preserve"> 1/(1 + EXP(-K36))</f>
+        <v>0.51062340100496373</v>
+      </c>
+      <c r="M36">
         <v>0.4</v>
       </c>
-      <c r="N30">
+      <c r="N36">
         <v>0.45</v>
       </c>
-      <c r="O30">
+      <c r="O36">
         <v>0.5</v>
       </c>
-      <c r="P30">
+      <c r="P36">
         <v>0.55000000000000004</v>
+      </c>
+      <c r="Q36">
+        <f>M36*J36 + N36*L36</f>
+        <v>0.43253035715804738</v>
+      </c>
+      <c r="R36">
+        <f>1/(1 + EXP(-Q36))</f>
+        <v>0.60647773220672796</v>
+      </c>
+      <c r="S36">
+        <f>O36*J36 + P36*L36</f>
+        <v>0.53428015393499717</v>
+      </c>
+      <c r="T36">
+        <f>1/(1 + EXP(-S36))</f>
+        <v>0.63048083545063482</v>
+      </c>
+      <c r="U36">
+        <f>0.5 *(0.01 - R36)^2</f>
+        <v>0.17789284250924053</v>
+      </c>
+      <c r="V36">
+        <f>0.5*(B36-T36)^2</f>
+        <v>6.4627014839136757E-2</v>
+      </c>
+      <c r="W36">
+        <f>U36+V36</f>
+        <v>0.24251985734837728</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C25:D25"/>
+  <mergeCells count="11">
+    <mergeCell ref="N6:S6"/>
+    <mergeCell ref="N8:T8"/>
+    <mergeCell ref="N10:T10"/>
+    <mergeCell ref="N7:T7"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C24:E24"/>
+    <mergeCell ref="C25:E25"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C29:D29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Session2/Back Propogation.xlsx
+++ b/Session2/Back Propogation.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="66">
   <si>
     <t>E1</t>
   </si>
@@ -164,9 +164,6 @@
     <t>E_Total</t>
   </si>
   <si>
-    <t>lr = 0.5</t>
-  </si>
-  <si>
     <t>o1 = (w5*a_h1 + w6*a_h2)</t>
   </si>
   <si>
@@ -211,9 +208,6 @@
     <t>∂E_t/∂a_h1 = ∂(E1 + E2)/∂a_h1</t>
   </si>
   <si>
-    <t>∂E1/∂a_h1 = ∂E1/∂a_o1 * ∂a_o1/∂o1 * ∂o1/∂a_h1 = (a_o1 - t1)*a_o1*(1 - a_o1)*w5</t>
-  </si>
-  <si>
     <t>∂E2/∂a_h1 = ∂E2/∂a_o2 * ∂a_o2/∂o2 * ∂o2/∂a_h1 = (a_o2 - t2)*a_o2*(1 - a_o2)*w7</t>
   </si>
   <si>
@@ -239,6 +233,42 @@
   </si>
   <si>
     <t>(a_o1 - t1) * a_o1 * (1 - a_o1) * w6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">∂E1/∂a_h1 = ∂E1/∂a_o1 * ∂a_o1/∂o1 * ∂o1/∂a_h1 = (a_o1 - t1)*a_o1*(1 - a_o1)*w5 + </t>
+  </si>
+  <si>
+    <t>E∂w1</t>
+  </si>
+  <si>
+    <t>E∂w2</t>
+  </si>
+  <si>
+    <t>E∂w3</t>
+  </si>
+  <si>
+    <t>E∂w4</t>
+  </si>
+  <si>
+    <t>E∂w5</t>
+  </si>
+  <si>
+    <t>E∂w6</t>
+  </si>
+  <si>
+    <t>E∂w7</t>
+  </si>
+  <si>
+    <t>E∂w8</t>
+  </si>
+  <si>
+    <t>∂E_t/∂w1 = ((a_o1 - t1) * a_o1 * (1 - a_o1) * w5 + (a_o2 - t2) * a_o2 * (1 - a_o2)*w7))* a_h1 * (1 - a_h1) * i1</t>
+  </si>
+  <si>
+    <t>∂E_t/∂w3 = ((a_o1 - t1) * a_o1 * (1 - a_o1) * w6 + (a_o2 - t2) * a_o2 * (1 - a_o2)*w8))* a_h2 * (1 - a_h2) * i1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lr  </t>
   </si>
 </sst>
 </file>
@@ -285,14 +315,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -301,6 +331,218 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-IN"/>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$W$35</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>E_Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$W$36:$W$78</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="43"/>
+                <c:pt idx="0">
+                  <c:v>0.24251985734837728</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.21490159884256635</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.24251985734837728</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.23970114342898322</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.24251985734837728</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.23970114342898322</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.24251985734837728</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.23970114342898322</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.24251985734837728</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.23970114342898322</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.24251985734837728</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.23970114342898322</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.24251985734837728</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.23970114342898322</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.24251985734837728</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.23970114342898322</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.24251985734837728</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.23970114342898322</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.24251985734837728</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.23970114342898322</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.24251985734837728</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.23970114342898322</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.24251985734837728</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.23970114342898322</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.24251985734837728</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.23970114342898322</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.24251985734837728</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.23970114342898322</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.24251985734837728</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.23970114342898322</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.24251985734837728</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.23970114342898322</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.24251985734837728</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.23970114342898322</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.24251985734837728</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.23970114342898322</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.24251985734837728</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.23970114342898322</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.24251985734837728</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.23970114342898322</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.24251985734837728</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.23970114342898322</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.24251985734837728</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="115776896"/>
+        <c:axId val="115782784"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="115776896"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="115782784"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="115782784"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="115776896"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2354,6 +2596,36 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="41" name="Chart 40"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2642,15 +2914,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:W36"/>
+  <dimension ref="A2:AE78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="H40" sqref="H40"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="10" max="10" width="9" customWidth="1"/>
+    <col min="13" max="13" width="8.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:20">
@@ -2680,57 +2953,57 @@
       </c>
     </row>
     <row r="6" spans="2:20">
-      <c r="N6" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="O6" s="4"/>
-      <c r="P6" s="4"/>
-      <c r="Q6" s="4"/>
-      <c r="R6" s="4"/>
-      <c r="S6" s="4"/>
+      <c r="N6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="2"/>
+      <c r="S6" s="2"/>
     </row>
     <row r="7" spans="2:20">
-      <c r="N7" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="O7" s="2"/>
-      <c r="P7" s="2"/>
-      <c r="Q7" s="2"/>
-      <c r="R7" s="2"/>
-      <c r="S7" s="2"/>
-      <c r="T7" s="2"/>
+      <c r="N7" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="3"/>
+      <c r="S7" s="3"/>
+      <c r="T7" s="3"/>
     </row>
     <row r="8" spans="2:20">
-      <c r="N8" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="O8" s="2"/>
-      <c r="P8" s="2"/>
-      <c r="Q8" s="2"/>
-      <c r="R8" s="2"/>
-      <c r="S8" s="2"/>
-      <c r="T8" s="2"/>
+      <c r="N8" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3"/>
+      <c r="S8" s="3"/>
+      <c r="T8" s="3"/>
     </row>
     <row r="9" spans="2:20">
       <c r="K9" t="s">
         <v>1</v>
       </c>
       <c r="N9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="2:20">
-      <c r="N10" s="2"/>
-      <c r="O10" s="2"/>
-      <c r="P10" s="2"/>
-      <c r="Q10" s="2"/>
-      <c r="R10" s="2"/>
-      <c r="S10" s="2"/>
-      <c r="T10" s="2"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="3"/>
+      <c r="S10" s="3"/>
+      <c r="T10" s="3"/>
     </row>
     <row r="11" spans="2:20">
       <c r="N11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="2:20">
@@ -2738,126 +3011,135 @@
         <v>0.1</v>
       </c>
       <c r="N12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="2:20">
       <c r="N13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14" spans="2:20">
       <c r="N14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="16" spans="2:20">
       <c r="N16" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="17" spans="3:19">
+      <c r="O17" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="20" spans="3:19">
+      <c r="C20" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D20" s="4"/>
+      <c r="N20" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19">
+      <c r="C21" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D21" s="4"/>
+      <c r="N21" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="17" spans="3:15">
-      <c r="O17" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="20" spans="3:15">
-      <c r="C20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D20" s="3"/>
-      <c r="N20" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="21" spans="3:15">
-      <c r="C21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D21" s="3"/>
-      <c r="N21" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="22" spans="3:15">
+    <row r="22" spans="3:19">
       <c r="C22" t="s">
         <v>31</v>
       </c>
       <c r="N22" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
-    <row r="23" spans="3:15">
+    <row r="23" spans="3:19">
       <c r="C23" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="24" spans="3:15">
-      <c r="C24" s="2" t="s">
+    <row r="24" spans="3:19">
+      <c r="C24" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="N24" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19">
+      <c r="C25" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="N24" t="s">
-        <v>49</v>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="N25" t="s">
+        <v>46</v>
       </c>
     </row>
-    <row r="25" spans="3:15">
-      <c r="C25" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="N25" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="26" spans="3:15">
+    <row r="26" spans="3:19">
       <c r="C26" t="s">
         <v>5</v>
       </c>
       <c r="N26" t="s">
-        <v>50</v>
+        <v>48</v>
+      </c>
+      <c r="S26" t="s">
+        <v>63</v>
       </c>
     </row>
-    <row r="27" spans="3:15">
+    <row r="27" spans="3:19">
       <c r="C27" t="s">
         <v>6</v>
       </c>
       <c r="N27" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="28" spans="3:19">
+      <c r="C28" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D28" s="3"/>
+      <c r="N28" t="s">
+        <v>50</v>
+      </c>
+      <c r="S28" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19">
+      <c r="C29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D29" s="3"/>
+      <c r="N29" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="28" spans="3:15">
-      <c r="C28" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D28" s="2"/>
-      <c r="N28" t="s">
-        <v>52</v>
-      </c>
+    <row r="30" spans="3:19">
+      <c r="C30" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D30" s="3"/>
     </row>
-    <row r="29" spans="3:15">
-      <c r="C29" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D29" s="2"/>
-      <c r="N29" t="s">
-        <v>53</v>
+    <row r="34" spans="1:31">
+      <c r="E34" t="s">
+        <v>65</v>
+      </c>
+      <c r="F34">
+        <v>2</v>
       </c>
     </row>
-    <row r="30" spans="3:15">
-      <c r="C30" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D30" s="2"/>
-    </row>
-    <row r="31" spans="3:15">
-      <c r="E31" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="35" spans="1:23">
+    <row r="35" spans="1:31">
       <c r="A35" t="s">
         <v>12</v>
       </c>
@@ -2927,8 +3209,32 @@
       <c r="W35" t="s">
         <v>33</v>
       </c>
+      <c r="X35" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z35" t="s">
+        <v>57</v>
+      </c>
+      <c r="AA35" t="s">
+        <v>58</v>
+      </c>
+      <c r="AB35" t="s">
+        <v>59</v>
+      </c>
+      <c r="AC35" t="s">
+        <v>60</v>
+      </c>
+      <c r="AD35" t="s">
+        <v>61</v>
+      </c>
+      <c r="AE35" t="s">
+        <v>62</v>
+      </c>
     </row>
-    <row r="36" spans="1:23">
+    <row r="36" spans="1:31">
       <c r="A36">
         <v>0.01</v>
       </c>
@@ -3008,6 +3314,4994 @@
       <c r="W36">
         <f>U36+V36</f>
         <v>0.24251985734837728</v>
+      </c>
+      <c r="X36">
+        <f>((R36 - A36)*R36*(1-R36)*M36 + (T36-B36)*T36*(1-T36)*O36)*J36*(1-J36)*C36</f>
+        <v>1.882556669401121E-4</v>
+      </c>
+      <c r="Y36">
+        <f>((R36 - A36)*R36*(1-R36)*M36 + (T36-B36)*T36*(1-T36)*O36)*J36*(1-J36)*D36</f>
+        <v>3.765113338802242E-4</v>
+      </c>
+      <c r="Z36">
+        <f>((R36-A36)*R36*(1-R36)*N36 + (T36-B36)*T36*(1-T36)*P36)*L36*(1-L36)*C36</f>
+        <v>2.248134625761188E-4</v>
+      </c>
+      <c r="AA36">
+        <f>((R36-A36)*R36*(1-R36)*N36 + (T36-B36)*T36*(1-T36)*P36)*L36*(1-L36)*D36</f>
+        <v>4.496269251522376E-4</v>
+      </c>
+      <c r="AB36">
+        <f>(R36-A36)*R36*(1-R36)*J36</f>
+        <v>7.2157072912136258E-2</v>
+      </c>
+      <c r="AC36">
+        <f>(R36-A36)*R36*(1-R36)*L36</f>
+        <v>7.2690745191944781E-2</v>
+      </c>
+      <c r="AD36">
+        <f>(T36 - B36) * T36 * (1 - T36) * J36</f>
+        <v>-4.2455250092604709E-2</v>
+      </c>
+      <c r="AE36">
+        <f>(T36 - B36) * T36 * (1 - T36) * L36</f>
+        <v>-4.276924828006376E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:31">
+      <c r="A37">
+        <v>0.01</v>
+      </c>
+      <c r="B37">
+        <v>0.99</v>
+      </c>
+      <c r="C37">
+        <v>0.05</v>
+      </c>
+      <c r="D37">
+        <v>0.1</v>
+      </c>
+      <c r="E37">
+        <f>E36-F34*X36</f>
+        <v>0.14962348866611977</v>
+      </c>
+      <c r="F37">
+        <f>F36-F34*Y36</f>
+        <v>0.19924697733223956</v>
+      </c>
+      <c r="G37">
+        <f>G36-F34*Z36</f>
+        <v>0.24955037307484776</v>
+      </c>
+      <c r="H37">
+        <f>H36-F34*AA36</f>
+        <v>0.29910074614969551</v>
+      </c>
+      <c r="I37">
+        <f>E37*C37 + F37*D37</f>
+        <v>2.7405872166529947E-2</v>
+      </c>
+      <c r="J37">
+        <f xml:space="preserve"> 1/(1 + EXP(-I37))</f>
+        <v>0.50685103923940988</v>
+      </c>
+      <c r="K37">
+        <f>G37*C37 + H37*D37</f>
+        <v>4.2387593268711943E-2</v>
+      </c>
+      <c r="L37">
+        <f xml:space="preserve"> 1/(1 + EXP(-K37))</f>
+        <v>0.51059531197447594</v>
+      </c>
+      <c r="M37">
+        <f>M36-F34*AB36</f>
+        <v>0.25568585417572753</v>
+      </c>
+      <c r="N37">
+        <f>N36-F34*AC36</f>
+        <v>0.30461850961611048</v>
+      </c>
+      <c r="O37">
+        <f>O36-F34*AD36</f>
+        <v>0.5849105001852094</v>
+      </c>
+      <c r="P37">
+        <f>P36-F34*AE36</f>
+        <v>0.63553849656012762</v>
+      </c>
+      <c r="Q37">
+        <f>M37*J37 + N37*L37</f>
+        <v>0.28513142385842155</v>
+      </c>
+      <c r="R37">
+        <f>1/(1 + EXP(-Q37))</f>
+        <v>0.57080380930727637</v>
+      </c>
+      <c r="S37">
+        <f>O37*J37 + P37*L37</f>
+        <v>0.62096547180382422</v>
+      </c>
+      <c r="T37">
+        <f>1/(1 + EXP(-S37))</f>
+        <v>0.65043809820361076</v>
+      </c>
+      <c r="U37">
+        <f>0.5 *(0.01 - R37)^2</f>
+        <v>0.157250456266776</v>
+      </c>
+      <c r="V37">
+        <f>0.5*(B37-T37)^2</f>
+        <v>5.7651142575790341E-2</v>
+      </c>
+      <c r="W37">
+        <f>U37+V37</f>
+        <v>0.21490159884256635</v>
+      </c>
+      <c r="X37">
+        <f>((R37 - A37)*R37*(1-R37)*M37 + (T37-B37)*T37*(1-T37)*O37)*J37*(1-J37)*C37</f>
+        <v>-1.2534929284452434E-4</v>
+      </c>
+      <c r="Y37">
+        <f>((R37 - A37)*R37*(1-R37)*M37 + (T37-B37)*T37*(1-T37)*O37)*J37*(1-J37)*D37</f>
+        <v>-2.5069858568904868E-4</v>
+      </c>
+      <c r="Z37">
+        <f>((R37-A37)*R37*(1-R37)*N37 + (T37-B37)*T37*(1-T37)*P37)*L37*(1-L37)*C37</f>
+        <v>-9.0156474975934867E-5</v>
+      </c>
+      <c r="AA37">
+        <f>((R37-A37)*R37*(1-R37)*N37 + (T37-B37)*T37*(1-T37)*P37)*L37*(1-L37)*D37</f>
+        <v>-1.8031294995186973E-4</v>
+      </c>
+      <c r="AB37">
+        <f>(R37-A37)*R37*(1-R37)*J37</f>
+        <v>6.963603225259983E-2</v>
+      </c>
+      <c r="AC37">
+        <f>(R37-A37)*R37*(1-R37)*L37</f>
+        <v>7.0150456169600875E-2</v>
+      </c>
+      <c r="AD37">
+        <f>(T37 - B37) * T37 * (1 - T37) * J37</f>
+        <v>-3.9131758387023506E-2</v>
+      </c>
+      <c r="AE37">
+        <f>(T37 - B37) * T37 * (1 - T37) * L37</f>
+        <v>-3.9420837356307255E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:31">
+      <c r="A38">
+        <v>0.01</v>
+      </c>
+      <c r="B38">
+        <v>0.99</v>
+      </c>
+      <c r="C38">
+        <v>0.05</v>
+      </c>
+      <c r="D38">
+        <v>0.1</v>
+      </c>
+      <c r="E38">
+        <v>0.15</v>
+      </c>
+      <c r="F38">
+        <v>0.2</v>
+      </c>
+      <c r="G38">
+        <v>0.25</v>
+      </c>
+      <c r="H38">
+        <v>0.3</v>
+      </c>
+      <c r="I38">
+        <f t="shared" ref="I38:I65" si="0">E38*C38 + F38*D38</f>
+        <v>2.7500000000000004E-2</v>
+      </c>
+      <c r="J38">
+        <f t="shared" ref="J38:J65" si="1" xml:space="preserve"> 1/(1 + EXP(-I38))</f>
+        <v>0.50687456676453424</v>
+      </c>
+      <c r="K38">
+        <f t="shared" ref="K38:K65" si="2">G38*C38 + H38*D38</f>
+        <v>4.2499999999999996E-2</v>
+      </c>
+      <c r="L38">
+        <f t="shared" ref="L38:L65" si="3" xml:space="preserve"> 1/(1 + EXP(-K38))</f>
+        <v>0.51062340100496373</v>
+      </c>
+      <c r="M38">
+        <v>0.4</v>
+      </c>
+      <c r="N38">
+        <v>0.45</v>
+      </c>
+      <c r="O38">
+        <v>0.5</v>
+      </c>
+      <c r="P38">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="Q38">
+        <f t="shared" ref="Q38:Q65" si="4">M38*J38 + N38*L38</f>
+        <v>0.43253035715804738</v>
+      </c>
+      <c r="R38">
+        <f t="shared" ref="R38:R65" si="5">1/(1 + EXP(-Q38))</f>
+        <v>0.60647773220672796</v>
+      </c>
+      <c r="S38">
+        <f t="shared" ref="S38:S65" si="6">O38*J38 + P38*L38</f>
+        <v>0.53428015393499717</v>
+      </c>
+      <c r="T38">
+        <f t="shared" ref="T38:T65" si="7">1/(1 + EXP(-S38))</f>
+        <v>0.63048083545063482</v>
+      </c>
+      <c r="U38">
+        <f t="shared" ref="U38:U65" si="8">0.5 *(0.01 - R38)^2</f>
+        <v>0.17789284250924053</v>
+      </c>
+      <c r="V38">
+        <f t="shared" ref="V38:V65" si="9">0.5*(B38-T38)^2</f>
+        <v>6.4627014839136757E-2</v>
+      </c>
+      <c r="W38">
+        <f t="shared" ref="W38:W65" si="10">U38+V38</f>
+        <v>0.24251985734837728</v>
+      </c>
+      <c r="X38">
+        <f t="shared" ref="X38:X65" si="11">((R38 - A38)*R38*(1-R38)*M38 + (T38-B38)*T38*(1-T38)*O38)*J38*(1-J38)*C38</f>
+        <v>1.882556669401121E-4</v>
+      </c>
+      <c r="Y38">
+        <f t="shared" ref="Y38:Y65" si="12">((R38 - A38)*R38*(1-R38)*M38 + (T38-B38)*T38*(1-T38)*O38)*J38*(1-J38)*D38</f>
+        <v>3.765113338802242E-4</v>
+      </c>
+      <c r="Z38">
+        <f t="shared" ref="Z38:Z65" si="13">((R38-A38)*R38*(1-R38)*N38 + (T38-B38)*T38*(1-T38)*P38)*L38*(1-L38)*C38</f>
+        <v>2.248134625761188E-4</v>
+      </c>
+      <c r="AA38">
+        <f t="shared" ref="AA38:AA65" si="14">((R38-A38)*R38*(1-R38)*N38 + (T38-B38)*T38*(1-T38)*P38)*L38*(1-L38)*D38</f>
+        <v>4.496269251522376E-4</v>
+      </c>
+      <c r="AB38">
+        <f t="shared" ref="AB38:AB65" si="15">(R38-A38)*R38*(1-R38)*J38</f>
+        <v>7.2157072912136258E-2</v>
+      </c>
+      <c r="AC38">
+        <f t="shared" ref="AC38:AC65" si="16">(R38-A38)*R38*(1-R38)*L38</f>
+        <v>7.2690745191944781E-2</v>
+      </c>
+      <c r="AD38">
+        <f t="shared" ref="AD38:AD65" si="17">(T38 - B38) * T38 * (1 - T38) * J38</f>
+        <v>-4.2455250092604709E-2</v>
+      </c>
+      <c r="AE38">
+        <f t="shared" ref="AE38:AE65" si="18">(T38 - B38) * T38 * (1 - T38) * L38</f>
+        <v>-4.276924828006376E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:31">
+      <c r="A39">
+        <v>0.01</v>
+      </c>
+      <c r="B39">
+        <v>0.99</v>
+      </c>
+      <c r="C39">
+        <v>0.05</v>
+      </c>
+      <c r="D39">
+        <v>0.1</v>
+      </c>
+      <c r="E39">
+        <f t="shared" ref="E39" si="19">E38-F36*X38</f>
+        <v>0.14996234886661197</v>
+      </c>
+      <c r="F39">
+        <f t="shared" ref="F39" si="20">F38-F36*Y38</f>
+        <v>0.19992469773322397</v>
+      </c>
+      <c r="G39">
+        <f t="shared" ref="G39" si="21">G38-F36*Z38</f>
+        <v>0.24995503730748478</v>
+      </c>
+      <c r="H39">
+        <f t="shared" ref="H39" si="22">H38-F36*AA38</f>
+        <v>0.29991007461496955</v>
+      </c>
+      <c r="I39">
+        <f t="shared" si="0"/>
+        <v>2.7490587216652998E-2</v>
+      </c>
+      <c r="J39">
+        <f t="shared" si="1"/>
+        <v>0.50687221401339022</v>
+      </c>
+      <c r="K39">
+        <f t="shared" si="2"/>
+        <v>4.2488759326871198E-2</v>
+      </c>
+      <c r="L39">
+        <f t="shared" si="3"/>
+        <v>0.51062059210493083</v>
+      </c>
+      <c r="M39">
+        <f t="shared" ref="M39" si="23">M38-F36*AB38</f>
+        <v>0.38556858541757277</v>
+      </c>
+      <c r="N39">
+        <f t="shared" ref="N39" si="24">N38-F36*AC38</f>
+        <v>0.43546185096161105</v>
+      </c>
+      <c r="O39">
+        <f t="shared" ref="O39" si="25">O38-F36*AD38</f>
+        <v>0.50849105001852091</v>
+      </c>
+      <c r="P39">
+        <f t="shared" ref="P39" si="26">P38-F36*AE38</f>
+        <v>0.55855384965601285</v>
+      </c>
+      <c r="Q39">
+        <f t="shared" si="4"/>
+        <v>0.41778979072174305</v>
+      </c>
+      <c r="R39">
+        <f t="shared" si="5"/>
+        <v>0.60295424541835718</v>
+      </c>
+      <c r="S39">
+        <f t="shared" si="6"/>
+        <v>0.54294908176272305</v>
+      </c>
+      <c r="T39">
+        <f t="shared" si="7"/>
+        <v>0.63249818224474286</v>
+      </c>
+      <c r="U39">
+        <f t="shared" si="8"/>
+        <v>0.17579736857982667</v>
+      </c>
+      <c r="V39">
+        <f t="shared" si="9"/>
+        <v>6.3903774849156547E-2</v>
+      </c>
+      <c r="W39">
+        <f t="shared" si="10"/>
+        <v>0.23970114342898322</v>
+      </c>
+      <c r="X39">
+        <f t="shared" si="11"/>
+        <v>1.5594043253671716E-4</v>
+      </c>
+      <c r="Y39">
+        <f t="shared" si="12"/>
+        <v>3.1188086507343433E-4</v>
+      </c>
+      <c r="Z39">
+        <f t="shared" si="13"/>
+        <v>1.9241233301920614E-4</v>
+      </c>
+      <c r="AA39">
+        <f t="shared" si="14"/>
+        <v>3.8482466603841228E-4</v>
+      </c>
+      <c r="AB39">
+        <f t="shared" si="15"/>
+        <v>7.1952283504215328E-2</v>
+      </c>
+      <c r="AC39">
+        <f t="shared" si="16"/>
+        <v>7.2484378883814093E-2</v>
+      </c>
+      <c r="AD39">
+        <f t="shared" si="17"/>
+        <v>-4.2120693409809694E-2</v>
+      </c>
+      <c r="AE39">
+        <f t="shared" si="18"/>
+        <v>-4.2432180763057388E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:31">
+      <c r="A40">
+        <v>0.01</v>
+      </c>
+      <c r="B40">
+        <v>0.99</v>
+      </c>
+      <c r="C40">
+        <v>0.05</v>
+      </c>
+      <c r="D40">
+        <v>0.1</v>
+      </c>
+      <c r="E40">
+        <v>0.15</v>
+      </c>
+      <c r="F40">
+        <v>0.2</v>
+      </c>
+      <c r="G40">
+        <v>0.25</v>
+      </c>
+      <c r="H40">
+        <v>0.3</v>
+      </c>
+      <c r="I40">
+        <f t="shared" si="0"/>
+        <v>2.7500000000000004E-2</v>
+      </c>
+      <c r="J40">
+        <f t="shared" si="1"/>
+        <v>0.50687456676453424</v>
+      </c>
+      <c r="K40">
+        <f t="shared" si="2"/>
+        <v>4.2499999999999996E-2</v>
+      </c>
+      <c r="L40">
+        <f t="shared" si="3"/>
+        <v>0.51062340100496373</v>
+      </c>
+      <c r="M40">
+        <v>0.4</v>
+      </c>
+      <c r="N40">
+        <v>0.45</v>
+      </c>
+      <c r="O40">
+        <v>0.5</v>
+      </c>
+      <c r="P40">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="Q40">
+        <f t="shared" si="4"/>
+        <v>0.43253035715804738</v>
+      </c>
+      <c r="R40">
+        <f t="shared" si="5"/>
+        <v>0.60647773220672796</v>
+      </c>
+      <c r="S40">
+        <f t="shared" si="6"/>
+        <v>0.53428015393499717</v>
+      </c>
+      <c r="T40">
+        <f t="shared" si="7"/>
+        <v>0.63048083545063482</v>
+      </c>
+      <c r="U40">
+        <f t="shared" si="8"/>
+        <v>0.17789284250924053</v>
+      </c>
+      <c r="V40">
+        <f t="shared" si="9"/>
+        <v>6.4627014839136757E-2</v>
+      </c>
+      <c r="W40">
+        <f t="shared" si="10"/>
+        <v>0.24251985734837728</v>
+      </c>
+      <c r="X40">
+        <f t="shared" si="11"/>
+        <v>1.882556669401121E-4</v>
+      </c>
+      <c r="Y40">
+        <f t="shared" si="12"/>
+        <v>3.765113338802242E-4</v>
+      </c>
+      <c r="Z40">
+        <f t="shared" si="13"/>
+        <v>2.248134625761188E-4</v>
+      </c>
+      <c r="AA40">
+        <f t="shared" si="14"/>
+        <v>4.496269251522376E-4</v>
+      </c>
+      <c r="AB40">
+        <f t="shared" si="15"/>
+        <v>7.2157072912136258E-2</v>
+      </c>
+      <c r="AC40">
+        <f t="shared" si="16"/>
+        <v>7.2690745191944781E-2</v>
+      </c>
+      <c r="AD40">
+        <f t="shared" si="17"/>
+        <v>-4.2455250092604709E-2</v>
+      </c>
+      <c r="AE40">
+        <f t="shared" si="18"/>
+        <v>-4.276924828006376E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:31">
+      <c r="A41">
+        <v>0.01</v>
+      </c>
+      <c r="B41">
+        <v>0.99</v>
+      </c>
+      <c r="C41">
+        <v>0.05</v>
+      </c>
+      <c r="D41">
+        <v>0.1</v>
+      </c>
+      <c r="E41">
+        <f t="shared" ref="E41" si="27">E40-F38*X40</f>
+        <v>0.14996234886661197</v>
+      </c>
+      <c r="F41">
+        <f t="shared" ref="F41" si="28">F40-F38*Y40</f>
+        <v>0.19992469773322397</v>
+      </c>
+      <c r="G41">
+        <f t="shared" ref="G41" si="29">G40-F38*Z40</f>
+        <v>0.24995503730748478</v>
+      </c>
+      <c r="H41">
+        <f t="shared" ref="H41" si="30">H40-F38*AA40</f>
+        <v>0.29991007461496955</v>
+      </c>
+      <c r="I41">
+        <f t="shared" si="0"/>
+        <v>2.7490587216652998E-2</v>
+      </c>
+      <c r="J41">
+        <f t="shared" si="1"/>
+        <v>0.50687221401339022</v>
+      </c>
+      <c r="K41">
+        <f t="shared" si="2"/>
+        <v>4.2488759326871198E-2</v>
+      </c>
+      <c r="L41">
+        <f t="shared" si="3"/>
+        <v>0.51062059210493083</v>
+      </c>
+      <c r="M41">
+        <f t="shared" ref="M41" si="31">M40-F38*AB40</f>
+        <v>0.38556858541757277</v>
+      </c>
+      <c r="N41">
+        <f t="shared" ref="N41" si="32">N40-F38*AC40</f>
+        <v>0.43546185096161105</v>
+      </c>
+      <c r="O41">
+        <f t="shared" ref="O41" si="33">O40-F38*AD40</f>
+        <v>0.50849105001852091</v>
+      </c>
+      <c r="P41">
+        <f t="shared" ref="P41" si="34">P40-F38*AE40</f>
+        <v>0.55855384965601285</v>
+      </c>
+      <c r="Q41">
+        <f t="shared" si="4"/>
+        <v>0.41778979072174305</v>
+      </c>
+      <c r="R41">
+        <f t="shared" si="5"/>
+        <v>0.60295424541835718</v>
+      </c>
+      <c r="S41">
+        <f t="shared" si="6"/>
+        <v>0.54294908176272305</v>
+      </c>
+      <c r="T41">
+        <f t="shared" si="7"/>
+        <v>0.63249818224474286</v>
+      </c>
+      <c r="U41">
+        <f t="shared" si="8"/>
+        <v>0.17579736857982667</v>
+      </c>
+      <c r="V41">
+        <f t="shared" si="9"/>
+        <v>6.3903774849156547E-2</v>
+      </c>
+      <c r="W41">
+        <f t="shared" si="10"/>
+        <v>0.23970114342898322</v>
+      </c>
+      <c r="X41">
+        <f t="shared" si="11"/>
+        <v>1.5594043253671716E-4</v>
+      </c>
+      <c r="Y41">
+        <f t="shared" si="12"/>
+        <v>3.1188086507343433E-4</v>
+      </c>
+      <c r="Z41">
+        <f t="shared" si="13"/>
+        <v>1.9241233301920614E-4</v>
+      </c>
+      <c r="AA41">
+        <f t="shared" si="14"/>
+        <v>3.8482466603841228E-4</v>
+      </c>
+      <c r="AB41">
+        <f t="shared" si="15"/>
+        <v>7.1952283504215328E-2</v>
+      </c>
+      <c r="AC41">
+        <f t="shared" si="16"/>
+        <v>7.2484378883814093E-2</v>
+      </c>
+      <c r="AD41">
+        <f t="shared" si="17"/>
+        <v>-4.2120693409809694E-2</v>
+      </c>
+      <c r="AE41">
+        <f t="shared" si="18"/>
+        <v>-4.2432180763057388E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:31">
+      <c r="A42">
+        <v>0.01</v>
+      </c>
+      <c r="B42">
+        <v>0.99</v>
+      </c>
+      <c r="C42">
+        <v>0.05</v>
+      </c>
+      <c r="D42">
+        <v>0.1</v>
+      </c>
+      <c r="E42">
+        <v>0.15</v>
+      </c>
+      <c r="F42">
+        <v>0.2</v>
+      </c>
+      <c r="G42">
+        <v>0.25</v>
+      </c>
+      <c r="H42">
+        <v>0.3</v>
+      </c>
+      <c r="I42">
+        <f t="shared" si="0"/>
+        <v>2.7500000000000004E-2</v>
+      </c>
+      <c r="J42">
+        <f t="shared" si="1"/>
+        <v>0.50687456676453424</v>
+      </c>
+      <c r="K42">
+        <f t="shared" si="2"/>
+        <v>4.2499999999999996E-2</v>
+      </c>
+      <c r="L42">
+        <f t="shared" si="3"/>
+        <v>0.51062340100496373</v>
+      </c>
+      <c r="M42">
+        <v>0.4</v>
+      </c>
+      <c r="N42">
+        <v>0.45</v>
+      </c>
+      <c r="O42">
+        <v>0.5</v>
+      </c>
+      <c r="P42">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="Q42">
+        <f t="shared" si="4"/>
+        <v>0.43253035715804738</v>
+      </c>
+      <c r="R42">
+        <f t="shared" si="5"/>
+        <v>0.60647773220672796</v>
+      </c>
+      <c r="S42">
+        <f t="shared" si="6"/>
+        <v>0.53428015393499717</v>
+      </c>
+      <c r="T42">
+        <f t="shared" si="7"/>
+        <v>0.63048083545063482</v>
+      </c>
+      <c r="U42">
+        <f t="shared" si="8"/>
+        <v>0.17789284250924053</v>
+      </c>
+      <c r="V42">
+        <f t="shared" si="9"/>
+        <v>6.4627014839136757E-2</v>
+      </c>
+      <c r="W42">
+        <f t="shared" si="10"/>
+        <v>0.24251985734837728</v>
+      </c>
+      <c r="X42">
+        <f t="shared" si="11"/>
+        <v>1.882556669401121E-4</v>
+      </c>
+      <c r="Y42">
+        <f t="shared" si="12"/>
+        <v>3.765113338802242E-4</v>
+      </c>
+      <c r="Z42">
+        <f t="shared" si="13"/>
+        <v>2.248134625761188E-4</v>
+      </c>
+      <c r="AA42">
+        <f t="shared" si="14"/>
+        <v>4.496269251522376E-4</v>
+      </c>
+      <c r="AB42">
+        <f t="shared" si="15"/>
+        <v>7.2157072912136258E-2</v>
+      </c>
+      <c r="AC42">
+        <f t="shared" si="16"/>
+        <v>7.2690745191944781E-2</v>
+      </c>
+      <c r="AD42">
+        <f t="shared" si="17"/>
+        <v>-4.2455250092604709E-2</v>
+      </c>
+      <c r="AE42">
+        <f t="shared" si="18"/>
+        <v>-4.276924828006376E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:31">
+      <c r="A43">
+        <v>0.01</v>
+      </c>
+      <c r="B43">
+        <v>0.99</v>
+      </c>
+      <c r="C43">
+        <v>0.05</v>
+      </c>
+      <c r="D43">
+        <v>0.1</v>
+      </c>
+      <c r="E43">
+        <f t="shared" ref="E43" si="35">E42-F40*X42</f>
+        <v>0.14996234886661197</v>
+      </c>
+      <c r="F43">
+        <f t="shared" ref="F43" si="36">F42-F40*Y42</f>
+        <v>0.19992469773322397</v>
+      </c>
+      <c r="G43">
+        <f t="shared" ref="G43" si="37">G42-F40*Z42</f>
+        <v>0.24995503730748478</v>
+      </c>
+      <c r="H43">
+        <f t="shared" ref="H43" si="38">H42-F40*AA42</f>
+        <v>0.29991007461496955</v>
+      </c>
+      <c r="I43">
+        <f t="shared" si="0"/>
+        <v>2.7490587216652998E-2</v>
+      </c>
+      <c r="J43">
+        <f t="shared" si="1"/>
+        <v>0.50687221401339022</v>
+      </c>
+      <c r="K43">
+        <f t="shared" si="2"/>
+        <v>4.2488759326871198E-2</v>
+      </c>
+      <c r="L43">
+        <f t="shared" si="3"/>
+        <v>0.51062059210493083</v>
+      </c>
+      <c r="M43">
+        <f t="shared" ref="M43" si="39">M42-F40*AB42</f>
+        <v>0.38556858541757277</v>
+      </c>
+      <c r="N43">
+        <f t="shared" ref="N43" si="40">N42-F40*AC42</f>
+        <v>0.43546185096161105</v>
+      </c>
+      <c r="O43">
+        <f t="shared" ref="O43" si="41">O42-F40*AD42</f>
+        <v>0.50849105001852091</v>
+      </c>
+      <c r="P43">
+        <f t="shared" ref="P43" si="42">P42-F40*AE42</f>
+        <v>0.55855384965601285</v>
+      </c>
+      <c r="Q43">
+        <f t="shared" si="4"/>
+        <v>0.41778979072174305</v>
+      </c>
+      <c r="R43">
+        <f t="shared" si="5"/>
+        <v>0.60295424541835718</v>
+      </c>
+      <c r="S43">
+        <f t="shared" si="6"/>
+        <v>0.54294908176272305</v>
+      </c>
+      <c r="T43">
+        <f t="shared" si="7"/>
+        <v>0.63249818224474286</v>
+      </c>
+      <c r="U43">
+        <f t="shared" si="8"/>
+        <v>0.17579736857982667</v>
+      </c>
+      <c r="V43">
+        <f t="shared" si="9"/>
+        <v>6.3903774849156547E-2</v>
+      </c>
+      <c r="W43">
+        <f t="shared" si="10"/>
+        <v>0.23970114342898322</v>
+      </c>
+      <c r="X43">
+        <f t="shared" si="11"/>
+        <v>1.5594043253671716E-4</v>
+      </c>
+      <c r="Y43">
+        <f t="shared" si="12"/>
+        <v>3.1188086507343433E-4</v>
+      </c>
+      <c r="Z43">
+        <f t="shared" si="13"/>
+        <v>1.9241233301920614E-4</v>
+      </c>
+      <c r="AA43">
+        <f t="shared" si="14"/>
+        <v>3.8482466603841228E-4</v>
+      </c>
+      <c r="AB43">
+        <f t="shared" si="15"/>
+        <v>7.1952283504215328E-2</v>
+      </c>
+      <c r="AC43">
+        <f t="shared" si="16"/>
+        <v>7.2484378883814093E-2</v>
+      </c>
+      <c r="AD43">
+        <f t="shared" si="17"/>
+        <v>-4.2120693409809694E-2</v>
+      </c>
+      <c r="AE43">
+        <f t="shared" si="18"/>
+        <v>-4.2432180763057388E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:31">
+      <c r="A44">
+        <v>0.01</v>
+      </c>
+      <c r="B44">
+        <v>0.99</v>
+      </c>
+      <c r="C44">
+        <v>0.05</v>
+      </c>
+      <c r="D44">
+        <v>0.1</v>
+      </c>
+      <c r="E44">
+        <v>0.15</v>
+      </c>
+      <c r="F44">
+        <v>0.2</v>
+      </c>
+      <c r="G44">
+        <v>0.25</v>
+      </c>
+      <c r="H44">
+        <v>0.3</v>
+      </c>
+      <c r="I44">
+        <f t="shared" si="0"/>
+        <v>2.7500000000000004E-2</v>
+      </c>
+      <c r="J44">
+        <f t="shared" si="1"/>
+        <v>0.50687456676453424</v>
+      </c>
+      <c r="K44">
+        <f t="shared" si="2"/>
+        <v>4.2499999999999996E-2</v>
+      </c>
+      <c r="L44">
+        <f t="shared" si="3"/>
+        <v>0.51062340100496373</v>
+      </c>
+      <c r="M44">
+        <v>0.4</v>
+      </c>
+      <c r="N44">
+        <v>0.45</v>
+      </c>
+      <c r="O44">
+        <v>0.5</v>
+      </c>
+      <c r="P44">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="Q44">
+        <f t="shared" si="4"/>
+        <v>0.43253035715804738</v>
+      </c>
+      <c r="R44">
+        <f t="shared" si="5"/>
+        <v>0.60647773220672796</v>
+      </c>
+      <c r="S44">
+        <f t="shared" si="6"/>
+        <v>0.53428015393499717</v>
+      </c>
+      <c r="T44">
+        <f t="shared" si="7"/>
+        <v>0.63048083545063482</v>
+      </c>
+      <c r="U44">
+        <f t="shared" si="8"/>
+        <v>0.17789284250924053</v>
+      </c>
+      <c r="V44">
+        <f t="shared" si="9"/>
+        <v>6.4627014839136757E-2</v>
+      </c>
+      <c r="W44">
+        <f t="shared" si="10"/>
+        <v>0.24251985734837728</v>
+      </c>
+      <c r="X44">
+        <f t="shared" si="11"/>
+        <v>1.882556669401121E-4</v>
+      </c>
+      <c r="Y44">
+        <f t="shared" si="12"/>
+        <v>3.765113338802242E-4</v>
+      </c>
+      <c r="Z44">
+        <f t="shared" si="13"/>
+        <v>2.248134625761188E-4</v>
+      </c>
+      <c r="AA44">
+        <f t="shared" si="14"/>
+        <v>4.496269251522376E-4</v>
+      </c>
+      <c r="AB44">
+        <f t="shared" si="15"/>
+        <v>7.2157072912136258E-2</v>
+      </c>
+      <c r="AC44">
+        <f t="shared" si="16"/>
+        <v>7.2690745191944781E-2</v>
+      </c>
+      <c r="AD44">
+        <f t="shared" si="17"/>
+        <v>-4.2455250092604709E-2</v>
+      </c>
+      <c r="AE44">
+        <f t="shared" si="18"/>
+        <v>-4.276924828006376E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:31">
+      <c r="A45">
+        <v>0.01</v>
+      </c>
+      <c r="B45">
+        <v>0.99</v>
+      </c>
+      <c r="C45">
+        <v>0.05</v>
+      </c>
+      <c r="D45">
+        <v>0.1</v>
+      </c>
+      <c r="E45">
+        <f t="shared" ref="E45" si="43">E44-F42*X44</f>
+        <v>0.14996234886661197</v>
+      </c>
+      <c r="F45">
+        <f t="shared" ref="F45" si="44">F44-F42*Y44</f>
+        <v>0.19992469773322397</v>
+      </c>
+      <c r="G45">
+        <f t="shared" ref="G45" si="45">G44-F42*Z44</f>
+        <v>0.24995503730748478</v>
+      </c>
+      <c r="H45">
+        <f t="shared" ref="H45" si="46">H44-F42*AA44</f>
+        <v>0.29991007461496955</v>
+      </c>
+      <c r="I45">
+        <f t="shared" si="0"/>
+        <v>2.7490587216652998E-2</v>
+      </c>
+      <c r="J45">
+        <f t="shared" si="1"/>
+        <v>0.50687221401339022</v>
+      </c>
+      <c r="K45">
+        <f t="shared" si="2"/>
+        <v>4.2488759326871198E-2</v>
+      </c>
+      <c r="L45">
+        <f t="shared" si="3"/>
+        <v>0.51062059210493083</v>
+      </c>
+      <c r="M45">
+        <f t="shared" ref="M45" si="47">M44-F42*AB44</f>
+        <v>0.38556858541757277</v>
+      </c>
+      <c r="N45">
+        <f t="shared" ref="N45" si="48">N44-F42*AC44</f>
+        <v>0.43546185096161105</v>
+      </c>
+      <c r="O45">
+        <f t="shared" ref="O45" si="49">O44-F42*AD44</f>
+        <v>0.50849105001852091</v>
+      </c>
+      <c r="P45">
+        <f t="shared" ref="P45" si="50">P44-F42*AE44</f>
+        <v>0.55855384965601285</v>
+      </c>
+      <c r="Q45">
+        <f t="shared" si="4"/>
+        <v>0.41778979072174305</v>
+      </c>
+      <c r="R45">
+        <f t="shared" si="5"/>
+        <v>0.60295424541835718</v>
+      </c>
+      <c r="S45">
+        <f t="shared" si="6"/>
+        <v>0.54294908176272305</v>
+      </c>
+      <c r="T45">
+        <f t="shared" si="7"/>
+        <v>0.63249818224474286</v>
+      </c>
+      <c r="U45">
+        <f t="shared" si="8"/>
+        <v>0.17579736857982667</v>
+      </c>
+      <c r="V45">
+        <f t="shared" si="9"/>
+        <v>6.3903774849156547E-2</v>
+      </c>
+      <c r="W45">
+        <f t="shared" si="10"/>
+        <v>0.23970114342898322</v>
+      </c>
+      <c r="X45">
+        <f t="shared" si="11"/>
+        <v>1.5594043253671716E-4</v>
+      </c>
+      <c r="Y45">
+        <f t="shared" si="12"/>
+        <v>3.1188086507343433E-4</v>
+      </c>
+      <c r="Z45">
+        <f t="shared" si="13"/>
+        <v>1.9241233301920614E-4</v>
+      </c>
+      <c r="AA45">
+        <f t="shared" si="14"/>
+        <v>3.8482466603841228E-4</v>
+      </c>
+      <c r="AB45">
+        <f t="shared" si="15"/>
+        <v>7.1952283504215328E-2</v>
+      </c>
+      <c r="AC45">
+        <f t="shared" si="16"/>
+        <v>7.2484378883814093E-2</v>
+      </c>
+      <c r="AD45">
+        <f t="shared" si="17"/>
+        <v>-4.2120693409809694E-2</v>
+      </c>
+      <c r="AE45">
+        <f t="shared" si="18"/>
+        <v>-4.2432180763057388E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:31">
+      <c r="A46">
+        <v>0.01</v>
+      </c>
+      <c r="B46">
+        <v>0.99</v>
+      </c>
+      <c r="C46">
+        <v>0.05</v>
+      </c>
+      <c r="D46">
+        <v>0.1</v>
+      </c>
+      <c r="E46">
+        <v>0.15</v>
+      </c>
+      <c r="F46">
+        <v>0.2</v>
+      </c>
+      <c r="G46">
+        <v>0.25</v>
+      </c>
+      <c r="H46">
+        <v>0.3</v>
+      </c>
+      <c r="I46">
+        <f t="shared" si="0"/>
+        <v>2.7500000000000004E-2</v>
+      </c>
+      <c r="J46">
+        <f t="shared" si="1"/>
+        <v>0.50687456676453424</v>
+      </c>
+      <c r="K46">
+        <f t="shared" si="2"/>
+        <v>4.2499999999999996E-2</v>
+      </c>
+      <c r="L46">
+        <f t="shared" si="3"/>
+        <v>0.51062340100496373</v>
+      </c>
+      <c r="M46">
+        <v>0.4</v>
+      </c>
+      <c r="N46">
+        <v>0.45</v>
+      </c>
+      <c r="O46">
+        <v>0.5</v>
+      </c>
+      <c r="P46">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="Q46">
+        <f t="shared" si="4"/>
+        <v>0.43253035715804738</v>
+      </c>
+      <c r="R46">
+        <f t="shared" si="5"/>
+        <v>0.60647773220672796</v>
+      </c>
+      <c r="S46">
+        <f t="shared" si="6"/>
+        <v>0.53428015393499717</v>
+      </c>
+      <c r="T46">
+        <f t="shared" si="7"/>
+        <v>0.63048083545063482</v>
+      </c>
+      <c r="U46">
+        <f t="shared" si="8"/>
+        <v>0.17789284250924053</v>
+      </c>
+      <c r="V46">
+        <f t="shared" si="9"/>
+        <v>6.4627014839136757E-2</v>
+      </c>
+      <c r="W46">
+        <f t="shared" si="10"/>
+        <v>0.24251985734837728</v>
+      </c>
+      <c r="X46">
+        <f t="shared" si="11"/>
+        <v>1.882556669401121E-4</v>
+      </c>
+      <c r="Y46">
+        <f t="shared" si="12"/>
+        <v>3.765113338802242E-4</v>
+      </c>
+      <c r="Z46">
+        <f t="shared" si="13"/>
+        <v>2.248134625761188E-4</v>
+      </c>
+      <c r="AA46">
+        <f t="shared" si="14"/>
+        <v>4.496269251522376E-4</v>
+      </c>
+      <c r="AB46">
+        <f t="shared" si="15"/>
+        <v>7.2157072912136258E-2</v>
+      </c>
+      <c r="AC46">
+        <f t="shared" si="16"/>
+        <v>7.2690745191944781E-2</v>
+      </c>
+      <c r="AD46">
+        <f t="shared" si="17"/>
+        <v>-4.2455250092604709E-2</v>
+      </c>
+      <c r="AE46">
+        <f t="shared" si="18"/>
+        <v>-4.276924828006376E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:31">
+      <c r="A47">
+        <v>0.01</v>
+      </c>
+      <c r="B47">
+        <v>0.99</v>
+      </c>
+      <c r="C47">
+        <v>0.05</v>
+      </c>
+      <c r="D47">
+        <v>0.1</v>
+      </c>
+      <c r="E47">
+        <f t="shared" ref="E47" si="51">E46-F44*X46</f>
+        <v>0.14996234886661197</v>
+      </c>
+      <c r="F47">
+        <f t="shared" ref="F47" si="52">F46-F44*Y46</f>
+        <v>0.19992469773322397</v>
+      </c>
+      <c r="G47">
+        <f t="shared" ref="G47" si="53">G46-F44*Z46</f>
+        <v>0.24995503730748478</v>
+      </c>
+      <c r="H47">
+        <f t="shared" ref="H47" si="54">H46-F44*AA46</f>
+        <v>0.29991007461496955</v>
+      </c>
+      <c r="I47">
+        <f t="shared" si="0"/>
+        <v>2.7490587216652998E-2</v>
+      </c>
+      <c r="J47">
+        <f t="shared" si="1"/>
+        <v>0.50687221401339022</v>
+      </c>
+      <c r="K47">
+        <f t="shared" si="2"/>
+        <v>4.2488759326871198E-2</v>
+      </c>
+      <c r="L47">
+        <f t="shared" si="3"/>
+        <v>0.51062059210493083</v>
+      </c>
+      <c r="M47">
+        <f t="shared" ref="M47" si="55">M46-F44*AB46</f>
+        <v>0.38556858541757277</v>
+      </c>
+      <c r="N47">
+        <f t="shared" ref="N47" si="56">N46-F44*AC46</f>
+        <v>0.43546185096161105</v>
+      </c>
+      <c r="O47">
+        <f t="shared" ref="O47" si="57">O46-F44*AD46</f>
+        <v>0.50849105001852091</v>
+      </c>
+      <c r="P47">
+        <f t="shared" ref="P47" si="58">P46-F44*AE46</f>
+        <v>0.55855384965601285</v>
+      </c>
+      <c r="Q47">
+        <f t="shared" si="4"/>
+        <v>0.41778979072174305</v>
+      </c>
+      <c r="R47">
+        <f t="shared" si="5"/>
+        <v>0.60295424541835718</v>
+      </c>
+      <c r="S47">
+        <f t="shared" si="6"/>
+        <v>0.54294908176272305</v>
+      </c>
+      <c r="T47">
+        <f t="shared" si="7"/>
+        <v>0.63249818224474286</v>
+      </c>
+      <c r="U47">
+        <f t="shared" si="8"/>
+        <v>0.17579736857982667</v>
+      </c>
+      <c r="V47">
+        <f t="shared" si="9"/>
+        <v>6.3903774849156547E-2</v>
+      </c>
+      <c r="W47">
+        <f t="shared" si="10"/>
+        <v>0.23970114342898322</v>
+      </c>
+      <c r="X47">
+        <f t="shared" si="11"/>
+        <v>1.5594043253671716E-4</v>
+      </c>
+      <c r="Y47">
+        <f t="shared" si="12"/>
+        <v>3.1188086507343433E-4</v>
+      </c>
+      <c r="Z47">
+        <f t="shared" si="13"/>
+        <v>1.9241233301920614E-4</v>
+      </c>
+      <c r="AA47">
+        <f t="shared" si="14"/>
+        <v>3.8482466603841228E-4</v>
+      </c>
+      <c r="AB47">
+        <f t="shared" si="15"/>
+        <v>7.1952283504215328E-2</v>
+      </c>
+      <c r="AC47">
+        <f t="shared" si="16"/>
+        <v>7.2484378883814093E-2</v>
+      </c>
+      <c r="AD47">
+        <f t="shared" si="17"/>
+        <v>-4.2120693409809694E-2</v>
+      </c>
+      <c r="AE47">
+        <f t="shared" si="18"/>
+        <v>-4.2432180763057388E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:31">
+      <c r="A48">
+        <v>0.01</v>
+      </c>
+      <c r="B48">
+        <v>0.99</v>
+      </c>
+      <c r="C48">
+        <v>0.05</v>
+      </c>
+      <c r="D48">
+        <v>0.1</v>
+      </c>
+      <c r="E48">
+        <v>0.15</v>
+      </c>
+      <c r="F48">
+        <v>0.2</v>
+      </c>
+      <c r="G48">
+        <v>0.25</v>
+      </c>
+      <c r="H48">
+        <v>0.3</v>
+      </c>
+      <c r="I48">
+        <f t="shared" si="0"/>
+        <v>2.7500000000000004E-2</v>
+      </c>
+      <c r="J48">
+        <f t="shared" si="1"/>
+        <v>0.50687456676453424</v>
+      </c>
+      <c r="K48">
+        <f t="shared" si="2"/>
+        <v>4.2499999999999996E-2</v>
+      </c>
+      <c r="L48">
+        <f t="shared" si="3"/>
+        <v>0.51062340100496373</v>
+      </c>
+      <c r="M48">
+        <v>0.4</v>
+      </c>
+      <c r="N48">
+        <v>0.45</v>
+      </c>
+      <c r="O48">
+        <v>0.5</v>
+      </c>
+      <c r="P48">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="Q48">
+        <f t="shared" si="4"/>
+        <v>0.43253035715804738</v>
+      </c>
+      <c r="R48">
+        <f t="shared" si="5"/>
+        <v>0.60647773220672796</v>
+      </c>
+      <c r="S48">
+        <f t="shared" si="6"/>
+        <v>0.53428015393499717</v>
+      </c>
+      <c r="T48">
+        <f t="shared" si="7"/>
+        <v>0.63048083545063482</v>
+      </c>
+      <c r="U48">
+        <f t="shared" si="8"/>
+        <v>0.17789284250924053</v>
+      </c>
+      <c r="V48">
+        <f t="shared" si="9"/>
+        <v>6.4627014839136757E-2</v>
+      </c>
+      <c r="W48">
+        <f t="shared" si="10"/>
+        <v>0.24251985734837728</v>
+      </c>
+      <c r="X48">
+        <f t="shared" si="11"/>
+        <v>1.882556669401121E-4</v>
+      </c>
+      <c r="Y48">
+        <f t="shared" si="12"/>
+        <v>3.765113338802242E-4</v>
+      </c>
+      <c r="Z48">
+        <f t="shared" si="13"/>
+        <v>2.248134625761188E-4</v>
+      </c>
+      <c r="AA48">
+        <f t="shared" si="14"/>
+        <v>4.496269251522376E-4</v>
+      </c>
+      <c r="AB48">
+        <f t="shared" si="15"/>
+        <v>7.2157072912136258E-2</v>
+      </c>
+      <c r="AC48">
+        <f t="shared" si="16"/>
+        <v>7.2690745191944781E-2</v>
+      </c>
+      <c r="AD48">
+        <f t="shared" si="17"/>
+        <v>-4.2455250092604709E-2</v>
+      </c>
+      <c r="AE48">
+        <f t="shared" si="18"/>
+        <v>-4.276924828006376E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:31">
+      <c r="A49">
+        <v>0.01</v>
+      </c>
+      <c r="B49">
+        <v>0.99</v>
+      </c>
+      <c r="C49">
+        <v>0.05</v>
+      </c>
+      <c r="D49">
+        <v>0.1</v>
+      </c>
+      <c r="E49">
+        <f t="shared" ref="E49" si="59">E48-F46*X48</f>
+        <v>0.14996234886661197</v>
+      </c>
+      <c r="F49">
+        <f t="shared" ref="F49" si="60">F48-F46*Y48</f>
+        <v>0.19992469773322397</v>
+      </c>
+      <c r="G49">
+        <f t="shared" ref="G49" si="61">G48-F46*Z48</f>
+        <v>0.24995503730748478</v>
+      </c>
+      <c r="H49">
+        <f t="shared" ref="H49" si="62">H48-F46*AA48</f>
+        <v>0.29991007461496955</v>
+      </c>
+      <c r="I49">
+        <f t="shared" si="0"/>
+        <v>2.7490587216652998E-2</v>
+      </c>
+      <c r="J49">
+        <f t="shared" si="1"/>
+        <v>0.50687221401339022</v>
+      </c>
+      <c r="K49">
+        <f t="shared" si="2"/>
+        <v>4.2488759326871198E-2</v>
+      </c>
+      <c r="L49">
+        <f t="shared" si="3"/>
+        <v>0.51062059210493083</v>
+      </c>
+      <c r="M49">
+        <f t="shared" ref="M49" si="63">M48-F46*AB48</f>
+        <v>0.38556858541757277</v>
+      </c>
+      <c r="N49">
+        <f t="shared" ref="N49" si="64">N48-F46*AC48</f>
+        <v>0.43546185096161105</v>
+      </c>
+      <c r="O49">
+        <f t="shared" ref="O49" si="65">O48-F46*AD48</f>
+        <v>0.50849105001852091</v>
+      </c>
+      <c r="P49">
+        <f t="shared" ref="P49" si="66">P48-F46*AE48</f>
+        <v>0.55855384965601285</v>
+      </c>
+      <c r="Q49">
+        <f t="shared" si="4"/>
+        <v>0.41778979072174305</v>
+      </c>
+      <c r="R49">
+        <f t="shared" si="5"/>
+        <v>0.60295424541835718</v>
+      </c>
+      <c r="S49">
+        <f t="shared" si="6"/>
+        <v>0.54294908176272305</v>
+      </c>
+      <c r="T49">
+        <f t="shared" si="7"/>
+        <v>0.63249818224474286</v>
+      </c>
+      <c r="U49">
+        <f t="shared" si="8"/>
+        <v>0.17579736857982667</v>
+      </c>
+      <c r="V49">
+        <f t="shared" si="9"/>
+        <v>6.3903774849156547E-2</v>
+      </c>
+      <c r="W49">
+        <f t="shared" si="10"/>
+        <v>0.23970114342898322</v>
+      </c>
+      <c r="X49">
+        <f t="shared" si="11"/>
+        <v>1.5594043253671716E-4</v>
+      </c>
+      <c r="Y49">
+        <f t="shared" si="12"/>
+        <v>3.1188086507343433E-4</v>
+      </c>
+      <c r="Z49">
+        <f t="shared" si="13"/>
+        <v>1.9241233301920614E-4</v>
+      </c>
+      <c r="AA49">
+        <f t="shared" si="14"/>
+        <v>3.8482466603841228E-4</v>
+      </c>
+      <c r="AB49">
+        <f t="shared" si="15"/>
+        <v>7.1952283504215328E-2</v>
+      </c>
+      <c r="AC49">
+        <f t="shared" si="16"/>
+        <v>7.2484378883814093E-2</v>
+      </c>
+      <c r="AD49">
+        <f t="shared" si="17"/>
+        <v>-4.2120693409809694E-2</v>
+      </c>
+      <c r="AE49">
+        <f t="shared" si="18"/>
+        <v>-4.2432180763057388E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:31">
+      <c r="A50">
+        <v>0.01</v>
+      </c>
+      <c r="B50">
+        <v>0.99</v>
+      </c>
+      <c r="C50">
+        <v>0.05</v>
+      </c>
+      <c r="D50">
+        <v>0.1</v>
+      </c>
+      <c r="E50">
+        <v>0.15</v>
+      </c>
+      <c r="F50">
+        <v>0.2</v>
+      </c>
+      <c r="G50">
+        <v>0.25</v>
+      </c>
+      <c r="H50">
+        <v>0.3</v>
+      </c>
+      <c r="I50">
+        <f t="shared" si="0"/>
+        <v>2.7500000000000004E-2</v>
+      </c>
+      <c r="J50">
+        <f t="shared" si="1"/>
+        <v>0.50687456676453424</v>
+      </c>
+      <c r="K50">
+        <f t="shared" si="2"/>
+        <v>4.2499999999999996E-2</v>
+      </c>
+      <c r="L50">
+        <f t="shared" si="3"/>
+        <v>0.51062340100496373</v>
+      </c>
+      <c r="M50">
+        <v>0.4</v>
+      </c>
+      <c r="N50">
+        <v>0.45</v>
+      </c>
+      <c r="O50">
+        <v>0.5</v>
+      </c>
+      <c r="P50">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="Q50">
+        <f t="shared" si="4"/>
+        <v>0.43253035715804738</v>
+      </c>
+      <c r="R50">
+        <f t="shared" si="5"/>
+        <v>0.60647773220672796</v>
+      </c>
+      <c r="S50">
+        <f t="shared" si="6"/>
+        <v>0.53428015393499717</v>
+      </c>
+      <c r="T50">
+        <f t="shared" si="7"/>
+        <v>0.63048083545063482</v>
+      </c>
+      <c r="U50">
+        <f t="shared" si="8"/>
+        <v>0.17789284250924053</v>
+      </c>
+      <c r="V50">
+        <f t="shared" si="9"/>
+        <v>6.4627014839136757E-2</v>
+      </c>
+      <c r="W50">
+        <f t="shared" si="10"/>
+        <v>0.24251985734837728</v>
+      </c>
+      <c r="X50">
+        <f t="shared" si="11"/>
+        <v>1.882556669401121E-4</v>
+      </c>
+      <c r="Y50">
+        <f t="shared" si="12"/>
+        <v>3.765113338802242E-4</v>
+      </c>
+      <c r="Z50">
+        <f t="shared" si="13"/>
+        <v>2.248134625761188E-4</v>
+      </c>
+      <c r="AA50">
+        <f t="shared" si="14"/>
+        <v>4.496269251522376E-4</v>
+      </c>
+      <c r="AB50">
+        <f t="shared" si="15"/>
+        <v>7.2157072912136258E-2</v>
+      </c>
+      <c r="AC50">
+        <f t="shared" si="16"/>
+        <v>7.2690745191944781E-2</v>
+      </c>
+      <c r="AD50">
+        <f t="shared" si="17"/>
+        <v>-4.2455250092604709E-2</v>
+      </c>
+      <c r="AE50">
+        <f t="shared" si="18"/>
+        <v>-4.276924828006376E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:31">
+      <c r="A51">
+        <v>0.01</v>
+      </c>
+      <c r="B51">
+        <v>0.99</v>
+      </c>
+      <c r="C51">
+        <v>0.05</v>
+      </c>
+      <c r="D51">
+        <v>0.1</v>
+      </c>
+      <c r="E51">
+        <f t="shared" ref="E51" si="67">E50-F48*X50</f>
+        <v>0.14996234886661197</v>
+      </c>
+      <c r="F51">
+        <f t="shared" ref="F51" si="68">F50-F48*Y50</f>
+        <v>0.19992469773322397</v>
+      </c>
+      <c r="G51">
+        <f t="shared" ref="G51" si="69">G50-F48*Z50</f>
+        <v>0.24995503730748478</v>
+      </c>
+      <c r="H51">
+        <f t="shared" ref="H51" si="70">H50-F48*AA50</f>
+        <v>0.29991007461496955</v>
+      </c>
+      <c r="I51">
+        <f t="shared" si="0"/>
+        <v>2.7490587216652998E-2</v>
+      </c>
+      <c r="J51">
+        <f t="shared" si="1"/>
+        <v>0.50687221401339022</v>
+      </c>
+      <c r="K51">
+        <f t="shared" si="2"/>
+        <v>4.2488759326871198E-2</v>
+      </c>
+      <c r="L51">
+        <f t="shared" si="3"/>
+        <v>0.51062059210493083</v>
+      </c>
+      <c r="M51">
+        <f t="shared" ref="M51" si="71">M50-F48*AB50</f>
+        <v>0.38556858541757277</v>
+      </c>
+      <c r="N51">
+        <f t="shared" ref="N51" si="72">N50-F48*AC50</f>
+        <v>0.43546185096161105</v>
+      </c>
+      <c r="O51">
+        <f t="shared" ref="O51" si="73">O50-F48*AD50</f>
+        <v>0.50849105001852091</v>
+      </c>
+      <c r="P51">
+        <f t="shared" ref="P51" si="74">P50-F48*AE50</f>
+        <v>0.55855384965601285</v>
+      </c>
+      <c r="Q51">
+        <f t="shared" si="4"/>
+        <v>0.41778979072174305</v>
+      </c>
+      <c r="R51">
+        <f t="shared" si="5"/>
+        <v>0.60295424541835718</v>
+      </c>
+      <c r="S51">
+        <f t="shared" si="6"/>
+        <v>0.54294908176272305</v>
+      </c>
+      <c r="T51">
+        <f t="shared" si="7"/>
+        <v>0.63249818224474286</v>
+      </c>
+      <c r="U51">
+        <f t="shared" si="8"/>
+        <v>0.17579736857982667</v>
+      </c>
+      <c r="V51">
+        <f t="shared" si="9"/>
+        <v>6.3903774849156547E-2</v>
+      </c>
+      <c r="W51">
+        <f t="shared" si="10"/>
+        <v>0.23970114342898322</v>
+      </c>
+      <c r="X51">
+        <f t="shared" si="11"/>
+        <v>1.5594043253671716E-4</v>
+      </c>
+      <c r="Y51">
+        <f t="shared" si="12"/>
+        <v>3.1188086507343433E-4</v>
+      </c>
+      <c r="Z51">
+        <f t="shared" si="13"/>
+        <v>1.9241233301920614E-4</v>
+      </c>
+      <c r="AA51">
+        <f t="shared" si="14"/>
+        <v>3.8482466603841228E-4</v>
+      </c>
+      <c r="AB51">
+        <f t="shared" si="15"/>
+        <v>7.1952283504215328E-2</v>
+      </c>
+      <c r="AC51">
+        <f t="shared" si="16"/>
+        <v>7.2484378883814093E-2</v>
+      </c>
+      <c r="AD51">
+        <f t="shared" si="17"/>
+        <v>-4.2120693409809694E-2</v>
+      </c>
+      <c r="AE51">
+        <f t="shared" si="18"/>
+        <v>-4.2432180763057388E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:31">
+      <c r="A52">
+        <v>0.01</v>
+      </c>
+      <c r="B52">
+        <v>0.99</v>
+      </c>
+      <c r="C52">
+        <v>0.05</v>
+      </c>
+      <c r="D52">
+        <v>0.1</v>
+      </c>
+      <c r="E52">
+        <v>0.15</v>
+      </c>
+      <c r="F52">
+        <v>0.2</v>
+      </c>
+      <c r="G52">
+        <v>0.25</v>
+      </c>
+      <c r="H52">
+        <v>0.3</v>
+      </c>
+      <c r="I52">
+        <f t="shared" si="0"/>
+        <v>2.7500000000000004E-2</v>
+      </c>
+      <c r="J52">
+        <f t="shared" si="1"/>
+        <v>0.50687456676453424</v>
+      </c>
+      <c r="K52">
+        <f t="shared" si="2"/>
+        <v>4.2499999999999996E-2</v>
+      </c>
+      <c r="L52">
+        <f t="shared" si="3"/>
+        <v>0.51062340100496373</v>
+      </c>
+      <c r="M52">
+        <v>0.4</v>
+      </c>
+      <c r="N52">
+        <v>0.45</v>
+      </c>
+      <c r="O52">
+        <v>0.5</v>
+      </c>
+      <c r="P52">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="Q52">
+        <f t="shared" si="4"/>
+        <v>0.43253035715804738</v>
+      </c>
+      <c r="R52">
+        <f t="shared" si="5"/>
+        <v>0.60647773220672796</v>
+      </c>
+      <c r="S52">
+        <f t="shared" si="6"/>
+        <v>0.53428015393499717</v>
+      </c>
+      <c r="T52">
+        <f t="shared" si="7"/>
+        <v>0.63048083545063482</v>
+      </c>
+      <c r="U52">
+        <f t="shared" si="8"/>
+        <v>0.17789284250924053</v>
+      </c>
+      <c r="V52">
+        <f t="shared" si="9"/>
+        <v>6.4627014839136757E-2</v>
+      </c>
+      <c r="W52">
+        <f t="shared" si="10"/>
+        <v>0.24251985734837728</v>
+      </c>
+      <c r="X52">
+        <f t="shared" si="11"/>
+        <v>1.882556669401121E-4</v>
+      </c>
+      <c r="Y52">
+        <f t="shared" si="12"/>
+        <v>3.765113338802242E-4</v>
+      </c>
+      <c r="Z52">
+        <f t="shared" si="13"/>
+        <v>2.248134625761188E-4</v>
+      </c>
+      <c r="AA52">
+        <f t="shared" si="14"/>
+        <v>4.496269251522376E-4</v>
+      </c>
+      <c r="AB52">
+        <f t="shared" si="15"/>
+        <v>7.2157072912136258E-2</v>
+      </c>
+      <c r="AC52">
+        <f t="shared" si="16"/>
+        <v>7.2690745191944781E-2</v>
+      </c>
+      <c r="AD52">
+        <f t="shared" si="17"/>
+        <v>-4.2455250092604709E-2</v>
+      </c>
+      <c r="AE52">
+        <f t="shared" si="18"/>
+        <v>-4.276924828006376E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:31">
+      <c r="A53">
+        <v>0.01</v>
+      </c>
+      <c r="B53">
+        <v>0.99</v>
+      </c>
+      <c r="C53">
+        <v>0.05</v>
+      </c>
+      <c r="D53">
+        <v>0.1</v>
+      </c>
+      <c r="E53">
+        <f t="shared" ref="E53" si="75">E52-F50*X52</f>
+        <v>0.14996234886661197</v>
+      </c>
+      <c r="F53">
+        <f t="shared" ref="F53" si="76">F52-F50*Y52</f>
+        <v>0.19992469773322397</v>
+      </c>
+      <c r="G53">
+        <f t="shared" ref="G53" si="77">G52-F50*Z52</f>
+        <v>0.24995503730748478</v>
+      </c>
+      <c r="H53">
+        <f t="shared" ref="H53" si="78">H52-F50*AA52</f>
+        <v>0.29991007461496955</v>
+      </c>
+      <c r="I53">
+        <f t="shared" si="0"/>
+        <v>2.7490587216652998E-2</v>
+      </c>
+      <c r="J53">
+        <f t="shared" si="1"/>
+        <v>0.50687221401339022</v>
+      </c>
+      <c r="K53">
+        <f t="shared" si="2"/>
+        <v>4.2488759326871198E-2</v>
+      </c>
+      <c r="L53">
+        <f t="shared" si="3"/>
+        <v>0.51062059210493083</v>
+      </c>
+      <c r="M53">
+        <f t="shared" ref="M53" si="79">M52-F50*AB52</f>
+        <v>0.38556858541757277</v>
+      </c>
+      <c r="N53">
+        <f t="shared" ref="N53" si="80">N52-F50*AC52</f>
+        <v>0.43546185096161105</v>
+      </c>
+      <c r="O53">
+        <f t="shared" ref="O53" si="81">O52-F50*AD52</f>
+        <v>0.50849105001852091</v>
+      </c>
+      <c r="P53">
+        <f t="shared" ref="P53" si="82">P52-F50*AE52</f>
+        <v>0.55855384965601285</v>
+      </c>
+      <c r="Q53">
+        <f t="shared" si="4"/>
+        <v>0.41778979072174305</v>
+      </c>
+      <c r="R53">
+        <f t="shared" si="5"/>
+        <v>0.60295424541835718</v>
+      </c>
+      <c r="S53">
+        <f t="shared" si="6"/>
+        <v>0.54294908176272305</v>
+      </c>
+      <c r="T53">
+        <f t="shared" si="7"/>
+        <v>0.63249818224474286</v>
+      </c>
+      <c r="U53">
+        <f t="shared" si="8"/>
+        <v>0.17579736857982667</v>
+      </c>
+      <c r="V53">
+        <f t="shared" si="9"/>
+        <v>6.3903774849156547E-2</v>
+      </c>
+      <c r="W53">
+        <f t="shared" si="10"/>
+        <v>0.23970114342898322</v>
+      </c>
+      <c r="X53">
+        <f t="shared" si="11"/>
+        <v>1.5594043253671716E-4</v>
+      </c>
+      <c r="Y53">
+        <f t="shared" si="12"/>
+        <v>3.1188086507343433E-4</v>
+      </c>
+      <c r="Z53">
+        <f t="shared" si="13"/>
+        <v>1.9241233301920614E-4</v>
+      </c>
+      <c r="AA53">
+        <f t="shared" si="14"/>
+        <v>3.8482466603841228E-4</v>
+      </c>
+      <c r="AB53">
+        <f t="shared" si="15"/>
+        <v>7.1952283504215328E-2</v>
+      </c>
+      <c r="AC53">
+        <f t="shared" si="16"/>
+        <v>7.2484378883814093E-2</v>
+      </c>
+      <c r="AD53">
+        <f t="shared" si="17"/>
+        <v>-4.2120693409809694E-2</v>
+      </c>
+      <c r="AE53">
+        <f t="shared" si="18"/>
+        <v>-4.2432180763057388E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:31">
+      <c r="A54">
+        <v>0.01</v>
+      </c>
+      <c r="B54">
+        <v>0.99</v>
+      </c>
+      <c r="C54">
+        <v>0.05</v>
+      </c>
+      <c r="D54">
+        <v>0.1</v>
+      </c>
+      <c r="E54">
+        <v>0.15</v>
+      </c>
+      <c r="F54">
+        <v>0.2</v>
+      </c>
+      <c r="G54">
+        <v>0.25</v>
+      </c>
+      <c r="H54">
+        <v>0.3</v>
+      </c>
+      <c r="I54">
+        <f t="shared" si="0"/>
+        <v>2.7500000000000004E-2</v>
+      </c>
+      <c r="J54">
+        <f t="shared" si="1"/>
+        <v>0.50687456676453424</v>
+      </c>
+      <c r="K54">
+        <f t="shared" si="2"/>
+        <v>4.2499999999999996E-2</v>
+      </c>
+      <c r="L54">
+        <f t="shared" si="3"/>
+        <v>0.51062340100496373</v>
+      </c>
+      <c r="M54">
+        <v>0.4</v>
+      </c>
+      <c r="N54">
+        <v>0.45</v>
+      </c>
+      <c r="O54">
+        <v>0.5</v>
+      </c>
+      <c r="P54">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="Q54">
+        <f t="shared" si="4"/>
+        <v>0.43253035715804738</v>
+      </c>
+      <c r="R54">
+        <f t="shared" si="5"/>
+        <v>0.60647773220672796</v>
+      </c>
+      <c r="S54">
+        <f t="shared" si="6"/>
+        <v>0.53428015393499717</v>
+      </c>
+      <c r="T54">
+        <f t="shared" si="7"/>
+        <v>0.63048083545063482</v>
+      </c>
+      <c r="U54">
+        <f t="shared" si="8"/>
+        <v>0.17789284250924053</v>
+      </c>
+      <c r="V54">
+        <f t="shared" si="9"/>
+        <v>6.4627014839136757E-2</v>
+      </c>
+      <c r="W54">
+        <f t="shared" si="10"/>
+        <v>0.24251985734837728</v>
+      </c>
+      <c r="X54">
+        <f t="shared" si="11"/>
+        <v>1.882556669401121E-4</v>
+      </c>
+      <c r="Y54">
+        <f t="shared" si="12"/>
+        <v>3.765113338802242E-4</v>
+      </c>
+      <c r="Z54">
+        <f t="shared" si="13"/>
+        <v>2.248134625761188E-4</v>
+      </c>
+      <c r="AA54">
+        <f t="shared" si="14"/>
+        <v>4.496269251522376E-4</v>
+      </c>
+      <c r="AB54">
+        <f t="shared" si="15"/>
+        <v>7.2157072912136258E-2</v>
+      </c>
+      <c r="AC54">
+        <f t="shared" si="16"/>
+        <v>7.2690745191944781E-2</v>
+      </c>
+      <c r="AD54">
+        <f t="shared" si="17"/>
+        <v>-4.2455250092604709E-2</v>
+      </c>
+      <c r="AE54">
+        <f t="shared" si="18"/>
+        <v>-4.276924828006376E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:31">
+      <c r="A55">
+        <v>0.01</v>
+      </c>
+      <c r="B55">
+        <v>0.99</v>
+      </c>
+      <c r="C55">
+        <v>0.05</v>
+      </c>
+      <c r="D55">
+        <v>0.1</v>
+      </c>
+      <c r="E55">
+        <f t="shared" ref="E55" si="83">E54-F52*X54</f>
+        <v>0.14996234886661197</v>
+      </c>
+      <c r="F55">
+        <f t="shared" ref="F55" si="84">F54-F52*Y54</f>
+        <v>0.19992469773322397</v>
+      </c>
+      <c r="G55">
+        <f t="shared" ref="G55" si="85">G54-F52*Z54</f>
+        <v>0.24995503730748478</v>
+      </c>
+      <c r="H55">
+        <f t="shared" ref="H55" si="86">H54-F52*AA54</f>
+        <v>0.29991007461496955</v>
+      </c>
+      <c r="I55">
+        <f t="shared" si="0"/>
+        <v>2.7490587216652998E-2</v>
+      </c>
+      <c r="J55">
+        <f t="shared" si="1"/>
+        <v>0.50687221401339022</v>
+      </c>
+      <c r="K55">
+        <f t="shared" si="2"/>
+        <v>4.2488759326871198E-2</v>
+      </c>
+      <c r="L55">
+        <f t="shared" si="3"/>
+        <v>0.51062059210493083</v>
+      </c>
+      <c r="M55">
+        <f t="shared" ref="M55" si="87">M54-F52*AB54</f>
+        <v>0.38556858541757277</v>
+      </c>
+      <c r="N55">
+        <f t="shared" ref="N55" si="88">N54-F52*AC54</f>
+        <v>0.43546185096161105</v>
+      </c>
+      <c r="O55">
+        <f t="shared" ref="O55" si="89">O54-F52*AD54</f>
+        <v>0.50849105001852091</v>
+      </c>
+      <c r="P55">
+        <f t="shared" ref="P55" si="90">P54-F52*AE54</f>
+        <v>0.55855384965601285</v>
+      </c>
+      <c r="Q55">
+        <f t="shared" si="4"/>
+        <v>0.41778979072174305</v>
+      </c>
+      <c r="R55">
+        <f t="shared" si="5"/>
+        <v>0.60295424541835718</v>
+      </c>
+      <c r="S55">
+        <f t="shared" si="6"/>
+        <v>0.54294908176272305</v>
+      </c>
+      <c r="T55">
+        <f t="shared" si="7"/>
+        <v>0.63249818224474286</v>
+      </c>
+      <c r="U55">
+        <f t="shared" si="8"/>
+        <v>0.17579736857982667</v>
+      </c>
+      <c r="V55">
+        <f t="shared" si="9"/>
+        <v>6.3903774849156547E-2</v>
+      </c>
+      <c r="W55">
+        <f t="shared" si="10"/>
+        <v>0.23970114342898322</v>
+      </c>
+      <c r="X55">
+        <f t="shared" si="11"/>
+        <v>1.5594043253671716E-4</v>
+      </c>
+      <c r="Y55">
+        <f t="shared" si="12"/>
+        <v>3.1188086507343433E-4</v>
+      </c>
+      <c r="Z55">
+        <f t="shared" si="13"/>
+        <v>1.9241233301920614E-4</v>
+      </c>
+      <c r="AA55">
+        <f t="shared" si="14"/>
+        <v>3.8482466603841228E-4</v>
+      </c>
+      <c r="AB55">
+        <f t="shared" si="15"/>
+        <v>7.1952283504215328E-2</v>
+      </c>
+      <c r="AC55">
+        <f t="shared" si="16"/>
+        <v>7.2484378883814093E-2</v>
+      </c>
+      <c r="AD55">
+        <f t="shared" si="17"/>
+        <v>-4.2120693409809694E-2</v>
+      </c>
+      <c r="AE55">
+        <f t="shared" si="18"/>
+        <v>-4.2432180763057388E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:31">
+      <c r="A56">
+        <v>0.01</v>
+      </c>
+      <c r="B56">
+        <v>0.99</v>
+      </c>
+      <c r="C56">
+        <v>0.05</v>
+      </c>
+      <c r="D56">
+        <v>0.1</v>
+      </c>
+      <c r="E56">
+        <v>0.15</v>
+      </c>
+      <c r="F56">
+        <v>0.2</v>
+      </c>
+      <c r="G56">
+        <v>0.25</v>
+      </c>
+      <c r="H56">
+        <v>0.3</v>
+      </c>
+      <c r="I56">
+        <f t="shared" si="0"/>
+        <v>2.7500000000000004E-2</v>
+      </c>
+      <c r="J56">
+        <f t="shared" si="1"/>
+        <v>0.50687456676453424</v>
+      </c>
+      <c r="K56">
+        <f t="shared" si="2"/>
+        <v>4.2499999999999996E-2</v>
+      </c>
+      <c r="L56">
+        <f t="shared" si="3"/>
+        <v>0.51062340100496373</v>
+      </c>
+      <c r="M56">
+        <v>0.4</v>
+      </c>
+      <c r="N56">
+        <v>0.45</v>
+      </c>
+      <c r="O56">
+        <v>0.5</v>
+      </c>
+      <c r="P56">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="Q56">
+        <f t="shared" si="4"/>
+        <v>0.43253035715804738</v>
+      </c>
+      <c r="R56">
+        <f t="shared" si="5"/>
+        <v>0.60647773220672796</v>
+      </c>
+      <c r="S56">
+        <f t="shared" si="6"/>
+        <v>0.53428015393499717</v>
+      </c>
+      <c r="T56">
+        <f t="shared" si="7"/>
+        <v>0.63048083545063482</v>
+      </c>
+      <c r="U56">
+        <f t="shared" si="8"/>
+        <v>0.17789284250924053</v>
+      </c>
+      <c r="V56">
+        <f t="shared" si="9"/>
+        <v>6.4627014839136757E-2</v>
+      </c>
+      <c r="W56">
+        <f t="shared" si="10"/>
+        <v>0.24251985734837728</v>
+      </c>
+      <c r="X56">
+        <f t="shared" si="11"/>
+        <v>1.882556669401121E-4</v>
+      </c>
+      <c r="Y56">
+        <f t="shared" si="12"/>
+        <v>3.765113338802242E-4</v>
+      </c>
+      <c r="Z56">
+        <f t="shared" si="13"/>
+        <v>2.248134625761188E-4</v>
+      </c>
+      <c r="AA56">
+        <f t="shared" si="14"/>
+        <v>4.496269251522376E-4</v>
+      </c>
+      <c r="AB56">
+        <f t="shared" si="15"/>
+        <v>7.2157072912136258E-2</v>
+      </c>
+      <c r="AC56">
+        <f t="shared" si="16"/>
+        <v>7.2690745191944781E-2</v>
+      </c>
+      <c r="AD56">
+        <f t="shared" si="17"/>
+        <v>-4.2455250092604709E-2</v>
+      </c>
+      <c r="AE56">
+        <f t="shared" si="18"/>
+        <v>-4.276924828006376E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:31">
+      <c r="A57">
+        <v>0.01</v>
+      </c>
+      <c r="B57">
+        <v>0.99</v>
+      </c>
+      <c r="C57">
+        <v>0.05</v>
+      </c>
+      <c r="D57">
+        <v>0.1</v>
+      </c>
+      <c r="E57">
+        <f t="shared" ref="E57" si="91">E56-F54*X56</f>
+        <v>0.14996234886661197</v>
+      </c>
+      <c r="F57">
+        <f t="shared" ref="F57" si="92">F56-F54*Y56</f>
+        <v>0.19992469773322397</v>
+      </c>
+      <c r="G57">
+        <f t="shared" ref="G57" si="93">G56-F54*Z56</f>
+        <v>0.24995503730748478</v>
+      </c>
+      <c r="H57">
+        <f t="shared" ref="H57" si="94">H56-F54*AA56</f>
+        <v>0.29991007461496955</v>
+      </c>
+      <c r="I57">
+        <f t="shared" si="0"/>
+        <v>2.7490587216652998E-2</v>
+      </c>
+      <c r="J57">
+        <f t="shared" si="1"/>
+        <v>0.50687221401339022</v>
+      </c>
+      <c r="K57">
+        <f t="shared" si="2"/>
+        <v>4.2488759326871198E-2</v>
+      </c>
+      <c r="L57">
+        <f t="shared" si="3"/>
+        <v>0.51062059210493083</v>
+      </c>
+      <c r="M57">
+        <f t="shared" ref="M57" si="95">M56-F54*AB56</f>
+        <v>0.38556858541757277</v>
+      </c>
+      <c r="N57">
+        <f t="shared" ref="N57" si="96">N56-F54*AC56</f>
+        <v>0.43546185096161105</v>
+      </c>
+      <c r="O57">
+        <f t="shared" ref="O57" si="97">O56-F54*AD56</f>
+        <v>0.50849105001852091</v>
+      </c>
+      <c r="P57">
+        <f t="shared" ref="P57" si="98">P56-F54*AE56</f>
+        <v>0.55855384965601285</v>
+      </c>
+      <c r="Q57">
+        <f t="shared" si="4"/>
+        <v>0.41778979072174305</v>
+      </c>
+      <c r="R57">
+        <f t="shared" si="5"/>
+        <v>0.60295424541835718</v>
+      </c>
+      <c r="S57">
+        <f t="shared" si="6"/>
+        <v>0.54294908176272305</v>
+      </c>
+      <c r="T57">
+        <f t="shared" si="7"/>
+        <v>0.63249818224474286</v>
+      </c>
+      <c r="U57">
+        <f t="shared" si="8"/>
+        <v>0.17579736857982667</v>
+      </c>
+      <c r="V57">
+        <f t="shared" si="9"/>
+        <v>6.3903774849156547E-2</v>
+      </c>
+      <c r="W57">
+        <f t="shared" si="10"/>
+        <v>0.23970114342898322</v>
+      </c>
+      <c r="X57">
+        <f t="shared" si="11"/>
+        <v>1.5594043253671716E-4</v>
+      </c>
+      <c r="Y57">
+        <f t="shared" si="12"/>
+        <v>3.1188086507343433E-4</v>
+      </c>
+      <c r="Z57">
+        <f t="shared" si="13"/>
+        <v>1.9241233301920614E-4</v>
+      </c>
+      <c r="AA57">
+        <f t="shared" si="14"/>
+        <v>3.8482466603841228E-4</v>
+      </c>
+      <c r="AB57">
+        <f t="shared" si="15"/>
+        <v>7.1952283504215328E-2</v>
+      </c>
+      <c r="AC57">
+        <f t="shared" si="16"/>
+        <v>7.2484378883814093E-2</v>
+      </c>
+      <c r="AD57">
+        <f t="shared" si="17"/>
+        <v>-4.2120693409809694E-2</v>
+      </c>
+      <c r="AE57">
+        <f t="shared" si="18"/>
+        <v>-4.2432180763057388E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:31">
+      <c r="A58">
+        <v>0.01</v>
+      </c>
+      <c r="B58">
+        <v>0.99</v>
+      </c>
+      <c r="C58">
+        <v>0.05</v>
+      </c>
+      <c r="D58">
+        <v>0.1</v>
+      </c>
+      <c r="E58">
+        <v>0.15</v>
+      </c>
+      <c r="F58">
+        <v>0.2</v>
+      </c>
+      <c r="G58">
+        <v>0.25</v>
+      </c>
+      <c r="H58">
+        <v>0.3</v>
+      </c>
+      <c r="I58">
+        <f t="shared" si="0"/>
+        <v>2.7500000000000004E-2</v>
+      </c>
+      <c r="J58">
+        <f t="shared" si="1"/>
+        <v>0.50687456676453424</v>
+      </c>
+      <c r="K58">
+        <f t="shared" si="2"/>
+        <v>4.2499999999999996E-2</v>
+      </c>
+      <c r="L58">
+        <f t="shared" si="3"/>
+        <v>0.51062340100496373</v>
+      </c>
+      <c r="M58">
+        <v>0.4</v>
+      </c>
+      <c r="N58">
+        <v>0.45</v>
+      </c>
+      <c r="O58">
+        <v>0.5</v>
+      </c>
+      <c r="P58">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="Q58">
+        <f t="shared" si="4"/>
+        <v>0.43253035715804738</v>
+      </c>
+      <c r="R58">
+        <f t="shared" si="5"/>
+        <v>0.60647773220672796</v>
+      </c>
+      <c r="S58">
+        <f t="shared" si="6"/>
+        <v>0.53428015393499717</v>
+      </c>
+      <c r="T58">
+        <f t="shared" si="7"/>
+        <v>0.63048083545063482</v>
+      </c>
+      <c r="U58">
+        <f t="shared" si="8"/>
+        <v>0.17789284250924053</v>
+      </c>
+      <c r="V58">
+        <f t="shared" si="9"/>
+        <v>6.4627014839136757E-2</v>
+      </c>
+      <c r="W58">
+        <f t="shared" si="10"/>
+        <v>0.24251985734837728</v>
+      </c>
+      <c r="X58">
+        <f t="shared" si="11"/>
+        <v>1.882556669401121E-4</v>
+      </c>
+      <c r="Y58">
+        <f t="shared" si="12"/>
+        <v>3.765113338802242E-4</v>
+      </c>
+      <c r="Z58">
+        <f t="shared" si="13"/>
+        <v>2.248134625761188E-4</v>
+      </c>
+      <c r="AA58">
+        <f t="shared" si="14"/>
+        <v>4.496269251522376E-4</v>
+      </c>
+      <c r="AB58">
+        <f t="shared" si="15"/>
+        <v>7.2157072912136258E-2</v>
+      </c>
+      <c r="AC58">
+        <f t="shared" si="16"/>
+        <v>7.2690745191944781E-2</v>
+      </c>
+      <c r="AD58">
+        <f t="shared" si="17"/>
+        <v>-4.2455250092604709E-2</v>
+      </c>
+      <c r="AE58">
+        <f t="shared" si="18"/>
+        <v>-4.276924828006376E-2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:31">
+      <c r="A59">
+        <v>0.01</v>
+      </c>
+      <c r="B59">
+        <v>0.99</v>
+      </c>
+      <c r="C59">
+        <v>0.05</v>
+      </c>
+      <c r="D59">
+        <v>0.1</v>
+      </c>
+      <c r="E59">
+        <f t="shared" ref="E59" si="99">E58-F56*X58</f>
+        <v>0.14996234886661197</v>
+      </c>
+      <c r="F59">
+        <f t="shared" ref="F59" si="100">F58-F56*Y58</f>
+        <v>0.19992469773322397</v>
+      </c>
+      <c r="G59">
+        <f t="shared" ref="G59" si="101">G58-F56*Z58</f>
+        <v>0.24995503730748478</v>
+      </c>
+      <c r="H59">
+        <f t="shared" ref="H59" si="102">H58-F56*AA58</f>
+        <v>0.29991007461496955</v>
+      </c>
+      <c r="I59">
+        <f t="shared" si="0"/>
+        <v>2.7490587216652998E-2</v>
+      </c>
+      <c r="J59">
+        <f t="shared" si="1"/>
+        <v>0.50687221401339022</v>
+      </c>
+      <c r="K59">
+        <f t="shared" si="2"/>
+        <v>4.2488759326871198E-2</v>
+      </c>
+      <c r="L59">
+        <f t="shared" si="3"/>
+        <v>0.51062059210493083</v>
+      </c>
+      <c r="M59">
+        <f t="shared" ref="M59" si="103">M58-F56*AB58</f>
+        <v>0.38556858541757277</v>
+      </c>
+      <c r="N59">
+        <f t="shared" ref="N59" si="104">N58-F56*AC58</f>
+        <v>0.43546185096161105</v>
+      </c>
+      <c r="O59">
+        <f t="shared" ref="O59" si="105">O58-F56*AD58</f>
+        <v>0.50849105001852091</v>
+      </c>
+      <c r="P59">
+        <f t="shared" ref="P59" si="106">P58-F56*AE58</f>
+        <v>0.55855384965601285</v>
+      </c>
+      <c r="Q59">
+        <f t="shared" si="4"/>
+        <v>0.41778979072174305</v>
+      </c>
+      <c r="R59">
+        <f t="shared" si="5"/>
+        <v>0.60295424541835718</v>
+      </c>
+      <c r="S59">
+        <f t="shared" si="6"/>
+        <v>0.54294908176272305</v>
+      </c>
+      <c r="T59">
+        <f t="shared" si="7"/>
+        <v>0.63249818224474286</v>
+      </c>
+      <c r="U59">
+        <f t="shared" si="8"/>
+        <v>0.17579736857982667</v>
+      </c>
+      <c r="V59">
+        <f t="shared" si="9"/>
+        <v>6.3903774849156547E-2</v>
+      </c>
+      <c r="W59">
+        <f t="shared" si="10"/>
+        <v>0.23970114342898322</v>
+      </c>
+      <c r="X59">
+        <f t="shared" si="11"/>
+        <v>1.5594043253671716E-4</v>
+      </c>
+      <c r="Y59">
+        <f t="shared" si="12"/>
+        <v>3.1188086507343433E-4</v>
+      </c>
+      <c r="Z59">
+        <f t="shared" si="13"/>
+        <v>1.9241233301920614E-4</v>
+      </c>
+      <c r="AA59">
+        <f t="shared" si="14"/>
+        <v>3.8482466603841228E-4</v>
+      </c>
+      <c r="AB59">
+        <f t="shared" si="15"/>
+        <v>7.1952283504215328E-2</v>
+      </c>
+      <c r="AC59">
+        <f t="shared" si="16"/>
+        <v>7.2484378883814093E-2</v>
+      </c>
+      <c r="AD59">
+        <f t="shared" si="17"/>
+        <v>-4.2120693409809694E-2</v>
+      </c>
+      <c r="AE59">
+        <f t="shared" si="18"/>
+        <v>-4.2432180763057388E-2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:31">
+      <c r="A60">
+        <v>0.01</v>
+      </c>
+      <c r="B60">
+        <v>0.99</v>
+      </c>
+      <c r="C60">
+        <v>0.05</v>
+      </c>
+      <c r="D60">
+        <v>0.1</v>
+      </c>
+      <c r="E60">
+        <v>0.15</v>
+      </c>
+      <c r="F60">
+        <v>0.2</v>
+      </c>
+      <c r="G60">
+        <v>0.25</v>
+      </c>
+      <c r="H60">
+        <v>0.3</v>
+      </c>
+      <c r="I60">
+        <f t="shared" si="0"/>
+        <v>2.7500000000000004E-2</v>
+      </c>
+      <c r="J60">
+        <f t="shared" si="1"/>
+        <v>0.50687456676453424</v>
+      </c>
+      <c r="K60">
+        <f t="shared" si="2"/>
+        <v>4.2499999999999996E-2</v>
+      </c>
+      <c r="L60">
+        <f t="shared" si="3"/>
+        <v>0.51062340100496373</v>
+      </c>
+      <c r="M60">
+        <v>0.4</v>
+      </c>
+      <c r="N60">
+        <v>0.45</v>
+      </c>
+      <c r="O60">
+        <v>0.5</v>
+      </c>
+      <c r="P60">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="Q60">
+        <f t="shared" si="4"/>
+        <v>0.43253035715804738</v>
+      </c>
+      <c r="R60">
+        <f t="shared" si="5"/>
+        <v>0.60647773220672796</v>
+      </c>
+      <c r="S60">
+        <f t="shared" si="6"/>
+        <v>0.53428015393499717</v>
+      </c>
+      <c r="T60">
+        <f t="shared" si="7"/>
+        <v>0.63048083545063482</v>
+      </c>
+      <c r="U60">
+        <f t="shared" si="8"/>
+        <v>0.17789284250924053</v>
+      </c>
+      <c r="V60">
+        <f t="shared" si="9"/>
+        <v>6.4627014839136757E-2</v>
+      </c>
+      <c r="W60">
+        <f t="shared" si="10"/>
+        <v>0.24251985734837728</v>
+      </c>
+      <c r="X60">
+        <f t="shared" si="11"/>
+        <v>1.882556669401121E-4</v>
+      </c>
+      <c r="Y60">
+        <f t="shared" si="12"/>
+        <v>3.765113338802242E-4</v>
+      </c>
+      <c r="Z60">
+        <f t="shared" si="13"/>
+        <v>2.248134625761188E-4</v>
+      </c>
+      <c r="AA60">
+        <f t="shared" si="14"/>
+        <v>4.496269251522376E-4</v>
+      </c>
+      <c r="AB60">
+        <f t="shared" si="15"/>
+        <v>7.2157072912136258E-2</v>
+      </c>
+      <c r="AC60">
+        <f t="shared" si="16"/>
+        <v>7.2690745191944781E-2</v>
+      </c>
+      <c r="AD60">
+        <f t="shared" si="17"/>
+        <v>-4.2455250092604709E-2</v>
+      </c>
+      <c r="AE60">
+        <f t="shared" si="18"/>
+        <v>-4.276924828006376E-2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:31">
+      <c r="A61">
+        <v>0.01</v>
+      </c>
+      <c r="B61">
+        <v>0.99</v>
+      </c>
+      <c r="C61">
+        <v>0.05</v>
+      </c>
+      <c r="D61">
+        <v>0.1</v>
+      </c>
+      <c r="E61">
+        <f t="shared" ref="E61" si="107">E60-F58*X60</f>
+        <v>0.14996234886661197</v>
+      </c>
+      <c r="F61">
+        <f t="shared" ref="F61" si="108">F60-F58*Y60</f>
+        <v>0.19992469773322397</v>
+      </c>
+      <c r="G61">
+        <f t="shared" ref="G61" si="109">G60-F58*Z60</f>
+        <v>0.24995503730748478</v>
+      </c>
+      <c r="H61">
+        <f t="shared" ref="H61" si="110">H60-F58*AA60</f>
+        <v>0.29991007461496955</v>
+      </c>
+      <c r="I61">
+        <f t="shared" si="0"/>
+        <v>2.7490587216652998E-2</v>
+      </c>
+      <c r="J61">
+        <f t="shared" si="1"/>
+        <v>0.50687221401339022</v>
+      </c>
+      <c r="K61">
+        <f t="shared" si="2"/>
+        <v>4.2488759326871198E-2</v>
+      </c>
+      <c r="L61">
+        <f t="shared" si="3"/>
+        <v>0.51062059210493083</v>
+      </c>
+      <c r="M61">
+        <f t="shared" ref="M61" si="111">M60-F58*AB60</f>
+        <v>0.38556858541757277</v>
+      </c>
+      <c r="N61">
+        <f t="shared" ref="N61" si="112">N60-F58*AC60</f>
+        <v>0.43546185096161105</v>
+      </c>
+      <c r="O61">
+        <f t="shared" ref="O61" si="113">O60-F58*AD60</f>
+        <v>0.50849105001852091</v>
+      </c>
+      <c r="P61">
+        <f t="shared" ref="P61" si="114">P60-F58*AE60</f>
+        <v>0.55855384965601285</v>
+      </c>
+      <c r="Q61">
+        <f t="shared" si="4"/>
+        <v>0.41778979072174305</v>
+      </c>
+      <c r="R61">
+        <f t="shared" si="5"/>
+        <v>0.60295424541835718</v>
+      </c>
+      <c r="S61">
+        <f t="shared" si="6"/>
+        <v>0.54294908176272305</v>
+      </c>
+      <c r="T61">
+        <f t="shared" si="7"/>
+        <v>0.63249818224474286</v>
+      </c>
+      <c r="U61">
+        <f t="shared" si="8"/>
+        <v>0.17579736857982667</v>
+      </c>
+      <c r="V61">
+        <f t="shared" si="9"/>
+        <v>6.3903774849156547E-2</v>
+      </c>
+      <c r="W61">
+        <f t="shared" si="10"/>
+        <v>0.23970114342898322</v>
+      </c>
+      <c r="X61">
+        <f t="shared" si="11"/>
+        <v>1.5594043253671716E-4</v>
+      </c>
+      <c r="Y61">
+        <f t="shared" si="12"/>
+        <v>3.1188086507343433E-4</v>
+      </c>
+      <c r="Z61">
+        <f t="shared" si="13"/>
+        <v>1.9241233301920614E-4</v>
+      </c>
+      <c r="AA61">
+        <f t="shared" si="14"/>
+        <v>3.8482466603841228E-4</v>
+      </c>
+      <c r="AB61">
+        <f t="shared" si="15"/>
+        <v>7.1952283504215328E-2</v>
+      </c>
+      <c r="AC61">
+        <f t="shared" si="16"/>
+        <v>7.2484378883814093E-2</v>
+      </c>
+      <c r="AD61">
+        <f t="shared" si="17"/>
+        <v>-4.2120693409809694E-2</v>
+      </c>
+      <c r="AE61">
+        <f t="shared" si="18"/>
+        <v>-4.2432180763057388E-2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:31">
+      <c r="A62">
+        <v>0.01</v>
+      </c>
+      <c r="B62">
+        <v>0.99</v>
+      </c>
+      <c r="C62">
+        <v>0.05</v>
+      </c>
+      <c r="D62">
+        <v>0.1</v>
+      </c>
+      <c r="E62">
+        <v>0.15</v>
+      </c>
+      <c r="F62">
+        <v>0.2</v>
+      </c>
+      <c r="G62">
+        <v>0.25</v>
+      </c>
+      <c r="H62">
+        <v>0.3</v>
+      </c>
+      <c r="I62">
+        <f t="shared" si="0"/>
+        <v>2.7500000000000004E-2</v>
+      </c>
+      <c r="J62">
+        <f t="shared" si="1"/>
+        <v>0.50687456676453424</v>
+      </c>
+      <c r="K62">
+        <f t="shared" si="2"/>
+        <v>4.2499999999999996E-2</v>
+      </c>
+      <c r="L62">
+        <f t="shared" si="3"/>
+        <v>0.51062340100496373</v>
+      </c>
+      <c r="M62">
+        <v>0.4</v>
+      </c>
+      <c r="N62">
+        <v>0.45</v>
+      </c>
+      <c r="O62">
+        <v>0.5</v>
+      </c>
+      <c r="P62">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="Q62">
+        <f t="shared" si="4"/>
+        <v>0.43253035715804738</v>
+      </c>
+      <c r="R62">
+        <f t="shared" si="5"/>
+        <v>0.60647773220672796</v>
+      </c>
+      <c r="S62">
+        <f t="shared" si="6"/>
+        <v>0.53428015393499717</v>
+      </c>
+      <c r="T62">
+        <f t="shared" si="7"/>
+        <v>0.63048083545063482</v>
+      </c>
+      <c r="U62">
+        <f t="shared" si="8"/>
+        <v>0.17789284250924053</v>
+      </c>
+      <c r="V62">
+        <f t="shared" si="9"/>
+        <v>6.4627014839136757E-2</v>
+      </c>
+      <c r="W62">
+        <f t="shared" si="10"/>
+        <v>0.24251985734837728</v>
+      </c>
+      <c r="X62">
+        <f t="shared" si="11"/>
+        <v>1.882556669401121E-4</v>
+      </c>
+      <c r="Y62">
+        <f t="shared" si="12"/>
+        <v>3.765113338802242E-4</v>
+      </c>
+      <c r="Z62">
+        <f t="shared" si="13"/>
+        <v>2.248134625761188E-4</v>
+      </c>
+      <c r="AA62">
+        <f t="shared" si="14"/>
+        <v>4.496269251522376E-4</v>
+      </c>
+      <c r="AB62">
+        <f t="shared" si="15"/>
+        <v>7.2157072912136258E-2</v>
+      </c>
+      <c r="AC62">
+        <f t="shared" si="16"/>
+        <v>7.2690745191944781E-2</v>
+      </c>
+      <c r="AD62">
+        <f t="shared" si="17"/>
+        <v>-4.2455250092604709E-2</v>
+      </c>
+      <c r="AE62">
+        <f t="shared" si="18"/>
+        <v>-4.276924828006376E-2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:31">
+      <c r="A63">
+        <v>0.01</v>
+      </c>
+      <c r="B63">
+        <v>0.99</v>
+      </c>
+      <c r="C63">
+        <v>0.05</v>
+      </c>
+      <c r="D63">
+        <v>0.1</v>
+      </c>
+      <c r="E63">
+        <f t="shared" ref="E63" si="115">E62-F60*X62</f>
+        <v>0.14996234886661197</v>
+      </c>
+      <c r="F63">
+        <f t="shared" ref="F63" si="116">F62-F60*Y62</f>
+        <v>0.19992469773322397</v>
+      </c>
+      <c r="G63">
+        <f t="shared" ref="G63" si="117">G62-F60*Z62</f>
+        <v>0.24995503730748478</v>
+      </c>
+      <c r="H63">
+        <f t="shared" ref="H63" si="118">H62-F60*AA62</f>
+        <v>0.29991007461496955</v>
+      </c>
+      <c r="I63">
+        <f t="shared" si="0"/>
+        <v>2.7490587216652998E-2</v>
+      </c>
+      <c r="J63">
+        <f t="shared" si="1"/>
+        <v>0.50687221401339022</v>
+      </c>
+      <c r="K63">
+        <f t="shared" si="2"/>
+        <v>4.2488759326871198E-2</v>
+      </c>
+      <c r="L63">
+        <f t="shared" si="3"/>
+        <v>0.51062059210493083</v>
+      </c>
+      <c r="M63">
+        <f t="shared" ref="M63" si="119">M62-F60*AB62</f>
+        <v>0.38556858541757277</v>
+      </c>
+      <c r="N63">
+        <f t="shared" ref="N63" si="120">N62-F60*AC62</f>
+        <v>0.43546185096161105</v>
+      </c>
+      <c r="O63">
+        <f t="shared" ref="O63" si="121">O62-F60*AD62</f>
+        <v>0.50849105001852091</v>
+      </c>
+      <c r="P63">
+        <f t="shared" ref="P63" si="122">P62-F60*AE62</f>
+        <v>0.55855384965601285</v>
+      </c>
+      <c r="Q63">
+        <f t="shared" si="4"/>
+        <v>0.41778979072174305</v>
+      </c>
+      <c r="R63">
+        <f t="shared" si="5"/>
+        <v>0.60295424541835718</v>
+      </c>
+      <c r="S63">
+        <f t="shared" si="6"/>
+        <v>0.54294908176272305</v>
+      </c>
+      <c r="T63">
+        <f t="shared" si="7"/>
+        <v>0.63249818224474286</v>
+      </c>
+      <c r="U63">
+        <f t="shared" si="8"/>
+        <v>0.17579736857982667</v>
+      </c>
+      <c r="V63">
+        <f t="shared" si="9"/>
+        <v>6.3903774849156547E-2</v>
+      </c>
+      <c r="W63">
+        <f t="shared" si="10"/>
+        <v>0.23970114342898322</v>
+      </c>
+      <c r="X63">
+        <f t="shared" si="11"/>
+        <v>1.5594043253671716E-4</v>
+      </c>
+      <c r="Y63">
+        <f t="shared" si="12"/>
+        <v>3.1188086507343433E-4</v>
+      </c>
+      <c r="Z63">
+        <f t="shared" si="13"/>
+        <v>1.9241233301920614E-4</v>
+      </c>
+      <c r="AA63">
+        <f t="shared" si="14"/>
+        <v>3.8482466603841228E-4</v>
+      </c>
+      <c r="AB63">
+        <f t="shared" si="15"/>
+        <v>7.1952283504215328E-2</v>
+      </c>
+      <c r="AC63">
+        <f t="shared" si="16"/>
+        <v>7.2484378883814093E-2</v>
+      </c>
+      <c r="AD63">
+        <f t="shared" si="17"/>
+        <v>-4.2120693409809694E-2</v>
+      </c>
+      <c r="AE63">
+        <f t="shared" si="18"/>
+        <v>-4.2432180763057388E-2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:31">
+      <c r="A64">
+        <v>0.01</v>
+      </c>
+      <c r="B64">
+        <v>0.99</v>
+      </c>
+      <c r="C64">
+        <v>0.05</v>
+      </c>
+      <c r="D64">
+        <v>0.1</v>
+      </c>
+      <c r="E64">
+        <v>0.15</v>
+      </c>
+      <c r="F64">
+        <v>0.2</v>
+      </c>
+      <c r="G64">
+        <v>0.25</v>
+      </c>
+      <c r="H64">
+        <v>0.3</v>
+      </c>
+      <c r="I64">
+        <f t="shared" si="0"/>
+        <v>2.7500000000000004E-2</v>
+      </c>
+      <c r="J64">
+        <f t="shared" si="1"/>
+        <v>0.50687456676453424</v>
+      </c>
+      <c r="K64">
+        <f t="shared" si="2"/>
+        <v>4.2499999999999996E-2</v>
+      </c>
+      <c r="L64">
+        <f t="shared" si="3"/>
+        <v>0.51062340100496373</v>
+      </c>
+      <c r="M64">
+        <v>0.4</v>
+      </c>
+      <c r="N64">
+        <v>0.45</v>
+      </c>
+      <c r="O64">
+        <v>0.5</v>
+      </c>
+      <c r="P64">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="Q64">
+        <f t="shared" si="4"/>
+        <v>0.43253035715804738</v>
+      </c>
+      <c r="R64">
+        <f t="shared" si="5"/>
+        <v>0.60647773220672796</v>
+      </c>
+      <c r="S64">
+        <f t="shared" si="6"/>
+        <v>0.53428015393499717</v>
+      </c>
+      <c r="T64">
+        <f t="shared" si="7"/>
+        <v>0.63048083545063482</v>
+      </c>
+      <c r="U64">
+        <f t="shared" si="8"/>
+        <v>0.17789284250924053</v>
+      </c>
+      <c r="V64">
+        <f t="shared" si="9"/>
+        <v>6.4627014839136757E-2</v>
+      </c>
+      <c r="W64">
+        <f t="shared" si="10"/>
+        <v>0.24251985734837728</v>
+      </c>
+      <c r="X64">
+        <f t="shared" si="11"/>
+        <v>1.882556669401121E-4</v>
+      </c>
+      <c r="Y64">
+        <f t="shared" si="12"/>
+        <v>3.765113338802242E-4</v>
+      </c>
+      <c r="Z64">
+        <f t="shared" si="13"/>
+        <v>2.248134625761188E-4</v>
+      </c>
+      <c r="AA64">
+        <f t="shared" si="14"/>
+        <v>4.496269251522376E-4</v>
+      </c>
+      <c r="AB64">
+        <f t="shared" si="15"/>
+        <v>7.2157072912136258E-2</v>
+      </c>
+      <c r="AC64">
+        <f t="shared" si="16"/>
+        <v>7.2690745191944781E-2</v>
+      </c>
+      <c r="AD64">
+        <f t="shared" si="17"/>
+        <v>-4.2455250092604709E-2</v>
+      </c>
+      <c r="AE64">
+        <f t="shared" si="18"/>
+        <v>-4.276924828006376E-2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:31">
+      <c r="A65">
+        <v>0.01</v>
+      </c>
+      <c r="B65">
+        <v>0.99</v>
+      </c>
+      <c r="C65">
+        <v>0.05</v>
+      </c>
+      <c r="D65">
+        <v>0.1</v>
+      </c>
+      <c r="E65">
+        <f t="shared" ref="E65" si="123">E64-F62*X64</f>
+        <v>0.14996234886661197</v>
+      </c>
+      <c r="F65">
+        <f t="shared" ref="F65" si="124">F64-F62*Y64</f>
+        <v>0.19992469773322397</v>
+      </c>
+      <c r="G65">
+        <f t="shared" ref="G65" si="125">G64-F62*Z64</f>
+        <v>0.24995503730748478</v>
+      </c>
+      <c r="H65">
+        <f t="shared" ref="H65" si="126">H64-F62*AA64</f>
+        <v>0.29991007461496955</v>
+      </c>
+      <c r="I65">
+        <f t="shared" si="0"/>
+        <v>2.7490587216652998E-2</v>
+      </c>
+      <c r="J65">
+        <f t="shared" si="1"/>
+        <v>0.50687221401339022</v>
+      </c>
+      <c r="K65">
+        <f t="shared" si="2"/>
+        <v>4.2488759326871198E-2</v>
+      </c>
+      <c r="L65">
+        <f t="shared" si="3"/>
+        <v>0.51062059210493083</v>
+      </c>
+      <c r="M65">
+        <f t="shared" ref="M65" si="127">M64-F62*AB64</f>
+        <v>0.38556858541757277</v>
+      </c>
+      <c r="N65">
+        <f t="shared" ref="N65" si="128">N64-F62*AC64</f>
+        <v>0.43546185096161105</v>
+      </c>
+      <c r="O65">
+        <f t="shared" ref="O65" si="129">O64-F62*AD64</f>
+        <v>0.50849105001852091</v>
+      </c>
+      <c r="P65">
+        <f t="shared" ref="P65" si="130">P64-F62*AE64</f>
+        <v>0.55855384965601285</v>
+      </c>
+      <c r="Q65">
+        <f t="shared" si="4"/>
+        <v>0.41778979072174305</v>
+      </c>
+      <c r="R65">
+        <f t="shared" si="5"/>
+        <v>0.60295424541835718</v>
+      </c>
+      <c r="S65">
+        <f t="shared" si="6"/>
+        <v>0.54294908176272305</v>
+      </c>
+      <c r="T65">
+        <f t="shared" si="7"/>
+        <v>0.63249818224474286</v>
+      </c>
+      <c r="U65">
+        <f t="shared" si="8"/>
+        <v>0.17579736857982667</v>
+      </c>
+      <c r="V65">
+        <f t="shared" si="9"/>
+        <v>6.3903774849156547E-2</v>
+      </c>
+      <c r="W65">
+        <f t="shared" si="10"/>
+        <v>0.23970114342898322</v>
+      </c>
+      <c r="X65">
+        <f t="shared" si="11"/>
+        <v>1.5594043253671716E-4</v>
+      </c>
+      <c r="Y65">
+        <f t="shared" si="12"/>
+        <v>3.1188086507343433E-4</v>
+      </c>
+      <c r="Z65">
+        <f t="shared" si="13"/>
+        <v>1.9241233301920614E-4</v>
+      </c>
+      <c r="AA65">
+        <f t="shared" si="14"/>
+        <v>3.8482466603841228E-4</v>
+      </c>
+      <c r="AB65">
+        <f t="shared" si="15"/>
+        <v>7.1952283504215328E-2</v>
+      </c>
+      <c r="AC65">
+        <f t="shared" si="16"/>
+        <v>7.2484378883814093E-2</v>
+      </c>
+      <c r="AD65">
+        <f t="shared" si="17"/>
+        <v>-4.2120693409809694E-2</v>
+      </c>
+      <c r="AE65">
+        <f t="shared" si="18"/>
+        <v>-4.2432180763057388E-2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:31">
+      <c r="A66">
+        <v>0.01</v>
+      </c>
+      <c r="B66">
+        <v>0.99</v>
+      </c>
+      <c r="C66">
+        <v>0.05</v>
+      </c>
+      <c r="D66">
+        <v>0.1</v>
+      </c>
+      <c r="E66">
+        <v>0.15</v>
+      </c>
+      <c r="F66">
+        <v>0.2</v>
+      </c>
+      <c r="G66">
+        <v>0.25</v>
+      </c>
+      <c r="H66">
+        <v>0.3</v>
+      </c>
+      <c r="I66">
+        <f>E66*C66 + F66*D66</f>
+        <v>2.7500000000000004E-2</v>
+      </c>
+      <c r="J66">
+        <f xml:space="preserve"> 1/(1 + EXP(-I66))</f>
+        <v>0.50687456676453424</v>
+      </c>
+      <c r="K66">
+        <f>G66*C66 + H66*D66</f>
+        <v>4.2499999999999996E-2</v>
+      </c>
+      <c r="L66">
+        <f xml:space="preserve"> 1/(1 + EXP(-K66))</f>
+        <v>0.51062340100496373</v>
+      </c>
+      <c r="M66">
+        <v>0.4</v>
+      </c>
+      <c r="N66">
+        <v>0.45</v>
+      </c>
+      <c r="O66">
+        <v>0.5</v>
+      </c>
+      <c r="P66">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="Q66">
+        <f>M66*J66 + N66*L66</f>
+        <v>0.43253035715804738</v>
+      </c>
+      <c r="R66">
+        <f>1/(1 + EXP(-Q66))</f>
+        <v>0.60647773220672796</v>
+      </c>
+      <c r="S66">
+        <f>O66*J66 + P66*L66</f>
+        <v>0.53428015393499717</v>
+      </c>
+      <c r="T66">
+        <f>1/(1 + EXP(-S66))</f>
+        <v>0.63048083545063482</v>
+      </c>
+      <c r="U66">
+        <f>0.5 *(0.01 - R66)^2</f>
+        <v>0.17789284250924053</v>
+      </c>
+      <c r="V66">
+        <f>0.5*(B66-T66)^2</f>
+        <v>6.4627014839136757E-2</v>
+      </c>
+      <c r="W66">
+        <f>U66+V66</f>
+        <v>0.24251985734837728</v>
+      </c>
+      <c r="X66">
+        <f>((R66 - A66)*R66*(1-R66)*M66 + (T66-B66)*T66*(1-T66)*O66)*J66*(1-J66)*C66</f>
+        <v>1.882556669401121E-4</v>
+      </c>
+      <c r="Y66">
+        <f>((R66 - A66)*R66*(1-R66)*M66 + (T66-B66)*T66*(1-T66)*O66)*J66*(1-J66)*D66</f>
+        <v>3.765113338802242E-4</v>
+      </c>
+      <c r="Z66">
+        <f>((R66-A66)*R66*(1-R66)*N66 + (T66-B66)*T66*(1-T66)*P66)*L66*(1-L66)*C66</f>
+        <v>2.248134625761188E-4</v>
+      </c>
+      <c r="AA66">
+        <f>((R66-A66)*R66*(1-R66)*N66 + (T66-B66)*T66*(1-T66)*P66)*L66*(1-L66)*D66</f>
+        <v>4.496269251522376E-4</v>
+      </c>
+      <c r="AB66">
+        <f>(R66-A66)*R66*(1-R66)*J66</f>
+        <v>7.2157072912136258E-2</v>
+      </c>
+      <c r="AC66">
+        <f>(R66-A66)*R66*(1-R66)*L66</f>
+        <v>7.2690745191944781E-2</v>
+      </c>
+      <c r="AD66">
+        <f>(T66 - B66) * T66 * (1 - T66) * J66</f>
+        <v>-4.2455250092604709E-2</v>
+      </c>
+      <c r="AE66">
+        <f>(T66 - B66) * T66 * (1 - T66) * L66</f>
+        <v>-4.276924828006376E-2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:31">
+      <c r="A67">
+        <v>0.01</v>
+      </c>
+      <c r="B67">
+        <v>0.99</v>
+      </c>
+      <c r="C67">
+        <v>0.05</v>
+      </c>
+      <c r="D67">
+        <v>0.1</v>
+      </c>
+      <c r="E67">
+        <f>E66-F64*X66</f>
+        <v>0.14996234886661197</v>
+      </c>
+      <c r="F67">
+        <f>F66-F64*Y66</f>
+        <v>0.19992469773322397</v>
+      </c>
+      <c r="G67">
+        <f>G66-F64*Z66</f>
+        <v>0.24995503730748478</v>
+      </c>
+      <c r="H67">
+        <f>H66-F64*AA66</f>
+        <v>0.29991007461496955</v>
+      </c>
+      <c r="I67">
+        <f>E67*C67 + F67*D67</f>
+        <v>2.7490587216652998E-2</v>
+      </c>
+      <c r="J67">
+        <f xml:space="preserve"> 1/(1 + EXP(-I67))</f>
+        <v>0.50687221401339022</v>
+      </c>
+      <c r="K67">
+        <f>G67*C67 + H67*D67</f>
+        <v>4.2488759326871198E-2</v>
+      </c>
+      <c r="L67">
+        <f xml:space="preserve"> 1/(1 + EXP(-K67))</f>
+        <v>0.51062059210493083</v>
+      </c>
+      <c r="M67">
+        <f>M66-F64*AB66</f>
+        <v>0.38556858541757277</v>
+      </c>
+      <c r="N67">
+        <f>N66-F64*AC66</f>
+        <v>0.43546185096161105</v>
+      </c>
+      <c r="O67">
+        <f>O66-F64*AD66</f>
+        <v>0.50849105001852091</v>
+      </c>
+      <c r="P67">
+        <f>P66-F64*AE66</f>
+        <v>0.55855384965601285</v>
+      </c>
+      <c r="Q67">
+        <f>M67*J67 + N67*L67</f>
+        <v>0.41778979072174305</v>
+      </c>
+      <c r="R67">
+        <f>1/(1 + EXP(-Q67))</f>
+        <v>0.60295424541835718</v>
+      </c>
+      <c r="S67">
+        <f>O67*J67 + P67*L67</f>
+        <v>0.54294908176272305</v>
+      </c>
+      <c r="T67">
+        <f>1/(1 + EXP(-S67))</f>
+        <v>0.63249818224474286</v>
+      </c>
+      <c r="U67">
+        <f>0.5 *(0.01 - R67)^2</f>
+        <v>0.17579736857982667</v>
+      </c>
+      <c r="V67">
+        <f>0.5*(B67-T67)^2</f>
+        <v>6.3903774849156547E-2</v>
+      </c>
+      <c r="W67">
+        <f>U67+V67</f>
+        <v>0.23970114342898322</v>
+      </c>
+      <c r="X67">
+        <f>((R67 - A67)*R67*(1-R67)*M67 + (T67-B67)*T67*(1-T67)*O67)*J67*(1-J67)*C67</f>
+        <v>1.5594043253671716E-4</v>
+      </c>
+      <c r="Y67">
+        <f>((R67 - A67)*R67*(1-R67)*M67 + (T67-B67)*T67*(1-T67)*O67)*J67*(1-J67)*D67</f>
+        <v>3.1188086507343433E-4</v>
+      </c>
+      <c r="Z67">
+        <f>((R67-A67)*R67*(1-R67)*N67 + (T67-B67)*T67*(1-T67)*P67)*L67*(1-L67)*C67</f>
+        <v>1.9241233301920614E-4</v>
+      </c>
+      <c r="AA67">
+        <f>((R67-A67)*R67*(1-R67)*N67 + (T67-B67)*T67*(1-T67)*P67)*L67*(1-L67)*D67</f>
+        <v>3.8482466603841228E-4</v>
+      </c>
+      <c r="AB67">
+        <f>(R67-A67)*R67*(1-R67)*J67</f>
+        <v>7.1952283504215328E-2</v>
+      </c>
+      <c r="AC67">
+        <f>(R67-A67)*R67*(1-R67)*L67</f>
+        <v>7.2484378883814093E-2</v>
+      </c>
+      <c r="AD67">
+        <f>(T67 - B67) * T67 * (1 - T67) * J67</f>
+        <v>-4.2120693409809694E-2</v>
+      </c>
+      <c r="AE67">
+        <f>(T67 - B67) * T67 * (1 - T67) * L67</f>
+        <v>-4.2432180763057388E-2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:31">
+      <c r="A68">
+        <v>0.01</v>
+      </c>
+      <c r="B68">
+        <v>0.99</v>
+      </c>
+      <c r="C68">
+        <v>0.05</v>
+      </c>
+      <c r="D68">
+        <v>0.1</v>
+      </c>
+      <c r="E68">
+        <v>0.15</v>
+      </c>
+      <c r="F68">
+        <v>0.2</v>
+      </c>
+      <c r="G68">
+        <v>0.25</v>
+      </c>
+      <c r="H68">
+        <v>0.3</v>
+      </c>
+      <c r="I68">
+        <f t="shared" ref="I68:I78" si="131">E68*C68 + F68*D68</f>
+        <v>2.7500000000000004E-2</v>
+      </c>
+      <c r="J68">
+        <f t="shared" ref="J68:J78" si="132" xml:space="preserve"> 1/(1 + EXP(-I68))</f>
+        <v>0.50687456676453424</v>
+      </c>
+      <c r="K68">
+        <f t="shared" ref="K68:K78" si="133">G68*C68 + H68*D68</f>
+        <v>4.2499999999999996E-2</v>
+      </c>
+      <c r="L68">
+        <f t="shared" ref="L68:L78" si="134" xml:space="preserve"> 1/(1 + EXP(-K68))</f>
+        <v>0.51062340100496373</v>
+      </c>
+      <c r="M68">
+        <v>0.4</v>
+      </c>
+      <c r="N68">
+        <v>0.45</v>
+      </c>
+      <c r="O68">
+        <v>0.5</v>
+      </c>
+      <c r="P68">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="Q68">
+        <f t="shared" ref="Q68:Q78" si="135">M68*J68 + N68*L68</f>
+        <v>0.43253035715804738</v>
+      </c>
+      <c r="R68">
+        <f t="shared" ref="R68:R78" si="136">1/(1 + EXP(-Q68))</f>
+        <v>0.60647773220672796</v>
+      </c>
+      <c r="S68">
+        <f t="shared" ref="S68:S78" si="137">O68*J68 + P68*L68</f>
+        <v>0.53428015393499717</v>
+      </c>
+      <c r="T68">
+        <f t="shared" ref="T68:T78" si="138">1/(1 + EXP(-S68))</f>
+        <v>0.63048083545063482</v>
+      </c>
+      <c r="U68">
+        <f t="shared" ref="U68:U78" si="139">0.5 *(0.01 - R68)^2</f>
+        <v>0.17789284250924053</v>
+      </c>
+      <c r="V68">
+        <f t="shared" ref="V68:V78" si="140">0.5*(B68-T68)^2</f>
+        <v>6.4627014839136757E-2</v>
+      </c>
+      <c r="W68">
+        <f t="shared" ref="W68:W78" si="141">U68+V68</f>
+        <v>0.24251985734837728</v>
+      </c>
+      <c r="X68">
+        <f t="shared" ref="X68:X78" si="142">((R68 - A68)*R68*(1-R68)*M68 + (T68-B68)*T68*(1-T68)*O68)*J68*(1-J68)*C68</f>
+        <v>1.882556669401121E-4</v>
+      </c>
+      <c r="Y68">
+        <f t="shared" ref="Y68:Y78" si="143">((R68 - A68)*R68*(1-R68)*M68 + (T68-B68)*T68*(1-T68)*O68)*J68*(1-J68)*D68</f>
+        <v>3.765113338802242E-4</v>
+      </c>
+      <c r="Z68">
+        <f t="shared" ref="Z68:Z78" si="144">((R68-A68)*R68*(1-R68)*N68 + (T68-B68)*T68*(1-T68)*P68)*L68*(1-L68)*C68</f>
+        <v>2.248134625761188E-4</v>
+      </c>
+      <c r="AA68">
+        <f t="shared" ref="AA68:AA78" si="145">((R68-A68)*R68*(1-R68)*N68 + (T68-B68)*T68*(1-T68)*P68)*L68*(1-L68)*D68</f>
+        <v>4.496269251522376E-4</v>
+      </c>
+      <c r="AB68">
+        <f t="shared" ref="AB68:AB78" si="146">(R68-A68)*R68*(1-R68)*J68</f>
+        <v>7.2157072912136258E-2</v>
+      </c>
+      <c r="AC68">
+        <f t="shared" ref="AC68:AC78" si="147">(R68-A68)*R68*(1-R68)*L68</f>
+        <v>7.2690745191944781E-2</v>
+      </c>
+      <c r="AD68">
+        <f t="shared" ref="AD68:AD78" si="148">(T68 - B68) * T68 * (1 - T68) * J68</f>
+        <v>-4.2455250092604709E-2</v>
+      </c>
+      <c r="AE68">
+        <f t="shared" ref="AE68:AE78" si="149">(T68 - B68) * T68 * (1 - T68) * L68</f>
+        <v>-4.276924828006376E-2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:31">
+      <c r="A69">
+        <v>0.01</v>
+      </c>
+      <c r="B69">
+        <v>0.99</v>
+      </c>
+      <c r="C69">
+        <v>0.05</v>
+      </c>
+      <c r="D69">
+        <v>0.1</v>
+      </c>
+      <c r="E69">
+        <f t="shared" ref="E69" si="150">E68-F66*X68</f>
+        <v>0.14996234886661197</v>
+      </c>
+      <c r="F69">
+        <f t="shared" ref="F69" si="151">F68-F66*Y68</f>
+        <v>0.19992469773322397</v>
+      </c>
+      <c r="G69">
+        <f t="shared" ref="G69" si="152">G68-F66*Z68</f>
+        <v>0.24995503730748478</v>
+      </c>
+      <c r="H69">
+        <f t="shared" ref="H69" si="153">H68-F66*AA68</f>
+        <v>0.29991007461496955</v>
+      </c>
+      <c r="I69">
+        <f t="shared" si="131"/>
+        <v>2.7490587216652998E-2</v>
+      </c>
+      <c r="J69">
+        <f t="shared" si="132"/>
+        <v>0.50687221401339022</v>
+      </c>
+      <c r="K69">
+        <f t="shared" si="133"/>
+        <v>4.2488759326871198E-2</v>
+      </c>
+      <c r="L69">
+        <f t="shared" si="134"/>
+        <v>0.51062059210493083</v>
+      </c>
+      <c r="M69">
+        <f t="shared" ref="M69" si="154">M68-F66*AB68</f>
+        <v>0.38556858541757277</v>
+      </c>
+      <c r="N69">
+        <f t="shared" ref="N69" si="155">N68-F66*AC68</f>
+        <v>0.43546185096161105</v>
+      </c>
+      <c r="O69">
+        <f t="shared" ref="O69" si="156">O68-F66*AD68</f>
+        <v>0.50849105001852091</v>
+      </c>
+      <c r="P69">
+        <f t="shared" ref="P69" si="157">P68-F66*AE68</f>
+        <v>0.55855384965601285</v>
+      </c>
+      <c r="Q69">
+        <f t="shared" si="135"/>
+        <v>0.41778979072174305</v>
+      </c>
+      <c r="R69">
+        <f t="shared" si="136"/>
+        <v>0.60295424541835718</v>
+      </c>
+      <c r="S69">
+        <f t="shared" si="137"/>
+        <v>0.54294908176272305</v>
+      </c>
+      <c r="T69">
+        <f t="shared" si="138"/>
+        <v>0.63249818224474286</v>
+      </c>
+      <c r="U69">
+        <f t="shared" si="139"/>
+        <v>0.17579736857982667</v>
+      </c>
+      <c r="V69">
+        <f t="shared" si="140"/>
+        <v>6.3903774849156547E-2</v>
+      </c>
+      <c r="W69">
+        <f t="shared" si="141"/>
+        <v>0.23970114342898322</v>
+      </c>
+      <c r="X69">
+        <f t="shared" si="142"/>
+        <v>1.5594043253671716E-4</v>
+      </c>
+      <c r="Y69">
+        <f t="shared" si="143"/>
+        <v>3.1188086507343433E-4</v>
+      </c>
+      <c r="Z69">
+        <f t="shared" si="144"/>
+        <v>1.9241233301920614E-4</v>
+      </c>
+      <c r="AA69">
+        <f t="shared" si="145"/>
+        <v>3.8482466603841228E-4</v>
+      </c>
+      <c r="AB69">
+        <f t="shared" si="146"/>
+        <v>7.1952283504215328E-2</v>
+      </c>
+      <c r="AC69">
+        <f t="shared" si="147"/>
+        <v>7.2484378883814093E-2</v>
+      </c>
+      <c r="AD69">
+        <f t="shared" si="148"/>
+        <v>-4.2120693409809694E-2</v>
+      </c>
+      <c r="AE69">
+        <f t="shared" si="149"/>
+        <v>-4.2432180763057388E-2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:31">
+      <c r="A70">
+        <v>0.01</v>
+      </c>
+      <c r="B70">
+        <v>0.99</v>
+      </c>
+      <c r="C70">
+        <v>0.05</v>
+      </c>
+      <c r="D70">
+        <v>0.1</v>
+      </c>
+      <c r="E70">
+        <v>0.15</v>
+      </c>
+      <c r="F70">
+        <v>0.2</v>
+      </c>
+      <c r="G70">
+        <v>0.25</v>
+      </c>
+      <c r="H70">
+        <v>0.3</v>
+      </c>
+      <c r="I70">
+        <f t="shared" si="131"/>
+        <v>2.7500000000000004E-2</v>
+      </c>
+      <c r="J70">
+        <f t="shared" si="132"/>
+        <v>0.50687456676453424</v>
+      </c>
+      <c r="K70">
+        <f t="shared" si="133"/>
+        <v>4.2499999999999996E-2</v>
+      </c>
+      <c r="L70">
+        <f t="shared" si="134"/>
+        <v>0.51062340100496373</v>
+      </c>
+      <c r="M70">
+        <v>0.4</v>
+      </c>
+      <c r="N70">
+        <v>0.45</v>
+      </c>
+      <c r="O70">
+        <v>0.5</v>
+      </c>
+      <c r="P70">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="Q70">
+        <f t="shared" si="135"/>
+        <v>0.43253035715804738</v>
+      </c>
+      <c r="R70">
+        <f t="shared" si="136"/>
+        <v>0.60647773220672796</v>
+      </c>
+      <c r="S70">
+        <f t="shared" si="137"/>
+        <v>0.53428015393499717</v>
+      </c>
+      <c r="T70">
+        <f t="shared" si="138"/>
+        <v>0.63048083545063482</v>
+      </c>
+      <c r="U70">
+        <f t="shared" si="139"/>
+        <v>0.17789284250924053</v>
+      </c>
+      <c r="V70">
+        <f t="shared" si="140"/>
+        <v>6.4627014839136757E-2</v>
+      </c>
+      <c r="W70">
+        <f t="shared" si="141"/>
+        <v>0.24251985734837728</v>
+      </c>
+      <c r="X70">
+        <f t="shared" si="142"/>
+        <v>1.882556669401121E-4</v>
+      </c>
+      <c r="Y70">
+        <f t="shared" si="143"/>
+        <v>3.765113338802242E-4</v>
+      </c>
+      <c r="Z70">
+        <f t="shared" si="144"/>
+        <v>2.248134625761188E-4</v>
+      </c>
+      <c r="AA70">
+        <f t="shared" si="145"/>
+        <v>4.496269251522376E-4</v>
+      </c>
+      <c r="AB70">
+        <f t="shared" si="146"/>
+        <v>7.2157072912136258E-2</v>
+      </c>
+      <c r="AC70">
+        <f t="shared" si="147"/>
+        <v>7.2690745191944781E-2</v>
+      </c>
+      <c r="AD70">
+        <f t="shared" si="148"/>
+        <v>-4.2455250092604709E-2</v>
+      </c>
+      <c r="AE70">
+        <f t="shared" si="149"/>
+        <v>-4.276924828006376E-2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:31">
+      <c r="A71">
+        <v>0.01</v>
+      </c>
+      <c r="B71">
+        <v>0.99</v>
+      </c>
+      <c r="C71">
+        <v>0.05</v>
+      </c>
+      <c r="D71">
+        <v>0.1</v>
+      </c>
+      <c r="E71">
+        <f t="shared" ref="E71" si="158">E70-F68*X70</f>
+        <v>0.14996234886661197</v>
+      </c>
+      <c r="F71">
+        <f t="shared" ref="F71" si="159">F70-F68*Y70</f>
+        <v>0.19992469773322397</v>
+      </c>
+      <c r="G71">
+        <f t="shared" ref="G71" si="160">G70-F68*Z70</f>
+        <v>0.24995503730748478</v>
+      </c>
+      <c r="H71">
+        <f t="shared" ref="H71" si="161">H70-F68*AA70</f>
+        <v>0.29991007461496955</v>
+      </c>
+      <c r="I71">
+        <f t="shared" si="131"/>
+        <v>2.7490587216652998E-2</v>
+      </c>
+      <c r="J71">
+        <f t="shared" si="132"/>
+        <v>0.50687221401339022</v>
+      </c>
+      <c r="K71">
+        <f t="shared" si="133"/>
+        <v>4.2488759326871198E-2</v>
+      </c>
+      <c r="L71">
+        <f t="shared" si="134"/>
+        <v>0.51062059210493083</v>
+      </c>
+      <c r="M71">
+        <f t="shared" ref="M71" si="162">M70-F68*AB70</f>
+        <v>0.38556858541757277</v>
+      </c>
+      <c r="N71">
+        <f t="shared" ref="N71" si="163">N70-F68*AC70</f>
+        <v>0.43546185096161105</v>
+      </c>
+      <c r="O71">
+        <f t="shared" ref="O71" si="164">O70-F68*AD70</f>
+        <v>0.50849105001852091</v>
+      </c>
+      <c r="P71">
+        <f t="shared" ref="P71" si="165">P70-F68*AE70</f>
+        <v>0.55855384965601285</v>
+      </c>
+      <c r="Q71">
+        <f t="shared" si="135"/>
+        <v>0.41778979072174305</v>
+      </c>
+      <c r="R71">
+        <f t="shared" si="136"/>
+        <v>0.60295424541835718</v>
+      </c>
+      <c r="S71">
+        <f t="shared" si="137"/>
+        <v>0.54294908176272305</v>
+      </c>
+      <c r="T71">
+        <f t="shared" si="138"/>
+        <v>0.63249818224474286</v>
+      </c>
+      <c r="U71">
+        <f t="shared" si="139"/>
+        <v>0.17579736857982667</v>
+      </c>
+      <c r="V71">
+        <f t="shared" si="140"/>
+        <v>6.3903774849156547E-2</v>
+      </c>
+      <c r="W71">
+        <f t="shared" si="141"/>
+        <v>0.23970114342898322</v>
+      </c>
+      <c r="X71">
+        <f t="shared" si="142"/>
+        <v>1.5594043253671716E-4</v>
+      </c>
+      <c r="Y71">
+        <f t="shared" si="143"/>
+        <v>3.1188086507343433E-4</v>
+      </c>
+      <c r="Z71">
+        <f t="shared" si="144"/>
+        <v>1.9241233301920614E-4</v>
+      </c>
+      <c r="AA71">
+        <f t="shared" si="145"/>
+        <v>3.8482466603841228E-4</v>
+      </c>
+      <c r="AB71">
+        <f t="shared" si="146"/>
+        <v>7.1952283504215328E-2</v>
+      </c>
+      <c r="AC71">
+        <f t="shared" si="147"/>
+        <v>7.2484378883814093E-2</v>
+      </c>
+      <c r="AD71">
+        <f t="shared" si="148"/>
+        <v>-4.2120693409809694E-2</v>
+      </c>
+      <c r="AE71">
+        <f t="shared" si="149"/>
+        <v>-4.2432180763057388E-2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:31">
+      <c r="A72">
+        <v>0.01</v>
+      </c>
+      <c r="B72">
+        <v>0.99</v>
+      </c>
+      <c r="C72">
+        <v>0.05</v>
+      </c>
+      <c r="D72">
+        <v>0.1</v>
+      </c>
+      <c r="E72">
+        <v>0.15</v>
+      </c>
+      <c r="F72">
+        <v>0.2</v>
+      </c>
+      <c r="G72">
+        <v>0.25</v>
+      </c>
+      <c r="H72">
+        <v>0.3</v>
+      </c>
+      <c r="I72">
+        <f t="shared" si="131"/>
+        <v>2.7500000000000004E-2</v>
+      </c>
+      <c r="J72">
+        <f t="shared" si="132"/>
+        <v>0.50687456676453424</v>
+      </c>
+      <c r="K72">
+        <f t="shared" si="133"/>
+        <v>4.2499999999999996E-2</v>
+      </c>
+      <c r="L72">
+        <f t="shared" si="134"/>
+        <v>0.51062340100496373</v>
+      </c>
+      <c r="M72">
+        <v>0.4</v>
+      </c>
+      <c r="N72">
+        <v>0.45</v>
+      </c>
+      <c r="O72">
+        <v>0.5</v>
+      </c>
+      <c r="P72">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="Q72">
+        <f t="shared" si="135"/>
+        <v>0.43253035715804738</v>
+      </c>
+      <c r="R72">
+        <f t="shared" si="136"/>
+        <v>0.60647773220672796</v>
+      </c>
+      <c r="S72">
+        <f t="shared" si="137"/>
+        <v>0.53428015393499717</v>
+      </c>
+      <c r="T72">
+        <f t="shared" si="138"/>
+        <v>0.63048083545063482</v>
+      </c>
+      <c r="U72">
+        <f t="shared" si="139"/>
+        <v>0.17789284250924053</v>
+      </c>
+      <c r="V72">
+        <f t="shared" si="140"/>
+        <v>6.4627014839136757E-2</v>
+      </c>
+      <c r="W72">
+        <f t="shared" si="141"/>
+        <v>0.24251985734837728</v>
+      </c>
+      <c r="X72">
+        <f t="shared" si="142"/>
+        <v>1.882556669401121E-4</v>
+      </c>
+      <c r="Y72">
+        <f t="shared" si="143"/>
+        <v>3.765113338802242E-4</v>
+      </c>
+      <c r="Z72">
+        <f t="shared" si="144"/>
+        <v>2.248134625761188E-4</v>
+      </c>
+      <c r="AA72">
+        <f t="shared" si="145"/>
+        <v>4.496269251522376E-4</v>
+      </c>
+      <c r="AB72">
+        <f t="shared" si="146"/>
+        <v>7.2157072912136258E-2</v>
+      </c>
+      <c r="AC72">
+        <f t="shared" si="147"/>
+        <v>7.2690745191944781E-2</v>
+      </c>
+      <c r="AD72">
+        <f t="shared" si="148"/>
+        <v>-4.2455250092604709E-2</v>
+      </c>
+      <c r="AE72">
+        <f t="shared" si="149"/>
+        <v>-4.276924828006376E-2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:31">
+      <c r="A73">
+        <v>0.01</v>
+      </c>
+      <c r="B73">
+        <v>0.99</v>
+      </c>
+      <c r="C73">
+        <v>0.05</v>
+      </c>
+      <c r="D73">
+        <v>0.1</v>
+      </c>
+      <c r="E73">
+        <f t="shared" ref="E73" si="166">E72-F70*X72</f>
+        <v>0.14996234886661197</v>
+      </c>
+      <c r="F73">
+        <f t="shared" ref="F73" si="167">F72-F70*Y72</f>
+        <v>0.19992469773322397</v>
+      </c>
+      <c r="G73">
+        <f t="shared" ref="G73" si="168">G72-F70*Z72</f>
+        <v>0.24995503730748478</v>
+      </c>
+      <c r="H73">
+        <f t="shared" ref="H73" si="169">H72-F70*AA72</f>
+        <v>0.29991007461496955</v>
+      </c>
+      <c r="I73">
+        <f t="shared" si="131"/>
+        <v>2.7490587216652998E-2</v>
+      </c>
+      <c r="J73">
+        <f t="shared" si="132"/>
+        <v>0.50687221401339022</v>
+      </c>
+      <c r="K73">
+        <f t="shared" si="133"/>
+        <v>4.2488759326871198E-2</v>
+      </c>
+      <c r="L73">
+        <f t="shared" si="134"/>
+        <v>0.51062059210493083</v>
+      </c>
+      <c r="M73">
+        <f t="shared" ref="M73" si="170">M72-F70*AB72</f>
+        <v>0.38556858541757277</v>
+      </c>
+      <c r="N73">
+        <f t="shared" ref="N73" si="171">N72-F70*AC72</f>
+        <v>0.43546185096161105</v>
+      </c>
+      <c r="O73">
+        <f t="shared" ref="O73" si="172">O72-F70*AD72</f>
+        <v>0.50849105001852091</v>
+      </c>
+      <c r="P73">
+        <f t="shared" ref="P73" si="173">P72-F70*AE72</f>
+        <v>0.55855384965601285</v>
+      </c>
+      <c r="Q73">
+        <f t="shared" si="135"/>
+        <v>0.41778979072174305</v>
+      </c>
+      <c r="R73">
+        <f t="shared" si="136"/>
+        <v>0.60295424541835718</v>
+      </c>
+      <c r="S73">
+        <f t="shared" si="137"/>
+        <v>0.54294908176272305</v>
+      </c>
+      <c r="T73">
+        <f t="shared" si="138"/>
+        <v>0.63249818224474286</v>
+      </c>
+      <c r="U73">
+        <f t="shared" si="139"/>
+        <v>0.17579736857982667</v>
+      </c>
+      <c r="V73">
+        <f t="shared" si="140"/>
+        <v>6.3903774849156547E-2</v>
+      </c>
+      <c r="W73">
+        <f t="shared" si="141"/>
+        <v>0.23970114342898322</v>
+      </c>
+      <c r="X73">
+        <f t="shared" si="142"/>
+        <v>1.5594043253671716E-4</v>
+      </c>
+      <c r="Y73">
+        <f t="shared" si="143"/>
+        <v>3.1188086507343433E-4</v>
+      </c>
+      <c r="Z73">
+        <f t="shared" si="144"/>
+        <v>1.9241233301920614E-4</v>
+      </c>
+      <c r="AA73">
+        <f t="shared" si="145"/>
+        <v>3.8482466603841228E-4</v>
+      </c>
+      <c r="AB73">
+        <f t="shared" si="146"/>
+        <v>7.1952283504215328E-2</v>
+      </c>
+      <c r="AC73">
+        <f t="shared" si="147"/>
+        <v>7.2484378883814093E-2</v>
+      </c>
+      <c r="AD73">
+        <f t="shared" si="148"/>
+        <v>-4.2120693409809694E-2</v>
+      </c>
+      <c r="AE73">
+        <f t="shared" si="149"/>
+        <v>-4.2432180763057388E-2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:31">
+      <c r="A74">
+        <v>0.01</v>
+      </c>
+      <c r="B74">
+        <v>0.99</v>
+      </c>
+      <c r="C74">
+        <v>0.05</v>
+      </c>
+      <c r="D74">
+        <v>0.1</v>
+      </c>
+      <c r="E74">
+        <v>0.15</v>
+      </c>
+      <c r="F74">
+        <v>0.2</v>
+      </c>
+      <c r="G74">
+        <v>0.25</v>
+      </c>
+      <c r="H74">
+        <v>0.3</v>
+      </c>
+      <c r="I74">
+        <f t="shared" si="131"/>
+        <v>2.7500000000000004E-2</v>
+      </c>
+      <c r="J74">
+        <f t="shared" si="132"/>
+        <v>0.50687456676453424</v>
+      </c>
+      <c r="K74">
+        <f t="shared" si="133"/>
+        <v>4.2499999999999996E-2</v>
+      </c>
+      <c r="L74">
+        <f t="shared" si="134"/>
+        <v>0.51062340100496373</v>
+      </c>
+      <c r="M74">
+        <v>0.4</v>
+      </c>
+      <c r="N74">
+        <v>0.45</v>
+      </c>
+      <c r="O74">
+        <v>0.5</v>
+      </c>
+      <c r="P74">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="Q74">
+        <f t="shared" si="135"/>
+        <v>0.43253035715804738</v>
+      </c>
+      <c r="R74">
+        <f t="shared" si="136"/>
+        <v>0.60647773220672796</v>
+      </c>
+      <c r="S74">
+        <f t="shared" si="137"/>
+        <v>0.53428015393499717</v>
+      </c>
+      <c r="T74">
+        <f t="shared" si="138"/>
+        <v>0.63048083545063482</v>
+      </c>
+      <c r="U74">
+        <f t="shared" si="139"/>
+        <v>0.17789284250924053</v>
+      </c>
+      <c r="V74">
+        <f t="shared" si="140"/>
+        <v>6.4627014839136757E-2</v>
+      </c>
+      <c r="W74">
+        <f t="shared" si="141"/>
+        <v>0.24251985734837728</v>
+      </c>
+      <c r="X74">
+        <f t="shared" si="142"/>
+        <v>1.882556669401121E-4</v>
+      </c>
+      <c r="Y74">
+        <f t="shared" si="143"/>
+        <v>3.765113338802242E-4</v>
+      </c>
+      <c r="Z74">
+        <f t="shared" si="144"/>
+        <v>2.248134625761188E-4</v>
+      </c>
+      <c r="AA74">
+        <f t="shared" si="145"/>
+        <v>4.496269251522376E-4</v>
+      </c>
+      <c r="AB74">
+        <f t="shared" si="146"/>
+        <v>7.2157072912136258E-2</v>
+      </c>
+      <c r="AC74">
+        <f t="shared" si="147"/>
+        <v>7.2690745191944781E-2</v>
+      </c>
+      <c r="AD74">
+        <f t="shared" si="148"/>
+        <v>-4.2455250092604709E-2</v>
+      </c>
+      <c r="AE74">
+        <f t="shared" si="149"/>
+        <v>-4.276924828006376E-2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:31">
+      <c r="A75">
+        <v>0.01</v>
+      </c>
+      <c r="B75">
+        <v>0.99</v>
+      </c>
+      <c r="C75">
+        <v>0.05</v>
+      </c>
+      <c r="D75">
+        <v>0.1</v>
+      </c>
+      <c r="E75">
+        <f t="shared" ref="E75" si="174">E74-F72*X74</f>
+        <v>0.14996234886661197</v>
+      </c>
+      <c r="F75">
+        <f t="shared" ref="F75" si="175">F74-F72*Y74</f>
+        <v>0.19992469773322397</v>
+      </c>
+      <c r="G75">
+        <f t="shared" ref="G75" si="176">G74-F72*Z74</f>
+        <v>0.24995503730748478</v>
+      </c>
+      <c r="H75">
+        <f t="shared" ref="H75" si="177">H74-F72*AA74</f>
+        <v>0.29991007461496955</v>
+      </c>
+      <c r="I75">
+        <f t="shared" si="131"/>
+        <v>2.7490587216652998E-2</v>
+      </c>
+      <c r="J75">
+        <f t="shared" si="132"/>
+        <v>0.50687221401339022</v>
+      </c>
+      <c r="K75">
+        <f t="shared" si="133"/>
+        <v>4.2488759326871198E-2</v>
+      </c>
+      <c r="L75">
+        <f t="shared" si="134"/>
+        <v>0.51062059210493083</v>
+      </c>
+      <c r="M75">
+        <f t="shared" ref="M75" si="178">M74-F72*AB74</f>
+        <v>0.38556858541757277</v>
+      </c>
+      <c r="N75">
+        <f t="shared" ref="N75" si="179">N74-F72*AC74</f>
+        <v>0.43546185096161105</v>
+      </c>
+      <c r="O75">
+        <f t="shared" ref="O75" si="180">O74-F72*AD74</f>
+        <v>0.50849105001852091</v>
+      </c>
+      <c r="P75">
+        <f t="shared" ref="P75" si="181">P74-F72*AE74</f>
+        <v>0.55855384965601285</v>
+      </c>
+      <c r="Q75">
+        <f t="shared" si="135"/>
+        <v>0.41778979072174305</v>
+      </c>
+      <c r="R75">
+        <f t="shared" si="136"/>
+        <v>0.60295424541835718</v>
+      </c>
+      <c r="S75">
+        <f t="shared" si="137"/>
+        <v>0.54294908176272305</v>
+      </c>
+      <c r="T75">
+        <f t="shared" si="138"/>
+        <v>0.63249818224474286</v>
+      </c>
+      <c r="U75">
+        <f t="shared" si="139"/>
+        <v>0.17579736857982667</v>
+      </c>
+      <c r="V75">
+        <f t="shared" si="140"/>
+        <v>6.3903774849156547E-2</v>
+      </c>
+      <c r="W75">
+        <f t="shared" si="141"/>
+        <v>0.23970114342898322</v>
+      </c>
+      <c r="X75">
+        <f t="shared" si="142"/>
+        <v>1.5594043253671716E-4</v>
+      </c>
+      <c r="Y75">
+        <f t="shared" si="143"/>
+        <v>3.1188086507343433E-4</v>
+      </c>
+      <c r="Z75">
+        <f t="shared" si="144"/>
+        <v>1.9241233301920614E-4</v>
+      </c>
+      <c r="AA75">
+        <f t="shared" si="145"/>
+        <v>3.8482466603841228E-4</v>
+      </c>
+      <c r="AB75">
+        <f t="shared" si="146"/>
+        <v>7.1952283504215328E-2</v>
+      </c>
+      <c r="AC75">
+        <f t="shared" si="147"/>
+        <v>7.2484378883814093E-2</v>
+      </c>
+      <c r="AD75">
+        <f t="shared" si="148"/>
+        <v>-4.2120693409809694E-2</v>
+      </c>
+      <c r="AE75">
+        <f t="shared" si="149"/>
+        <v>-4.2432180763057388E-2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:31">
+      <c r="A76">
+        <v>0.01</v>
+      </c>
+      <c r="B76">
+        <v>0.99</v>
+      </c>
+      <c r="C76">
+        <v>0.05</v>
+      </c>
+      <c r="D76">
+        <v>0.1</v>
+      </c>
+      <c r="E76">
+        <v>0.15</v>
+      </c>
+      <c r="F76">
+        <v>0.2</v>
+      </c>
+      <c r="G76">
+        <v>0.25</v>
+      </c>
+      <c r="H76">
+        <v>0.3</v>
+      </c>
+      <c r="I76">
+        <f t="shared" si="131"/>
+        <v>2.7500000000000004E-2</v>
+      </c>
+      <c r="J76">
+        <f t="shared" si="132"/>
+        <v>0.50687456676453424</v>
+      </c>
+      <c r="K76">
+        <f t="shared" si="133"/>
+        <v>4.2499999999999996E-2</v>
+      </c>
+      <c r="L76">
+        <f t="shared" si="134"/>
+        <v>0.51062340100496373</v>
+      </c>
+      <c r="M76">
+        <v>0.4</v>
+      </c>
+      <c r="N76">
+        <v>0.45</v>
+      </c>
+      <c r="O76">
+        <v>0.5</v>
+      </c>
+      <c r="P76">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="Q76">
+        <f t="shared" si="135"/>
+        <v>0.43253035715804738</v>
+      </c>
+      <c r="R76">
+        <f t="shared" si="136"/>
+        <v>0.60647773220672796</v>
+      </c>
+      <c r="S76">
+        <f t="shared" si="137"/>
+        <v>0.53428015393499717</v>
+      </c>
+      <c r="T76">
+        <f t="shared" si="138"/>
+        <v>0.63048083545063482</v>
+      </c>
+      <c r="U76">
+        <f t="shared" si="139"/>
+        <v>0.17789284250924053</v>
+      </c>
+      <c r="V76">
+        <f t="shared" si="140"/>
+        <v>6.4627014839136757E-2</v>
+      </c>
+      <c r="W76">
+        <f t="shared" si="141"/>
+        <v>0.24251985734837728</v>
+      </c>
+      <c r="X76">
+        <f t="shared" si="142"/>
+        <v>1.882556669401121E-4</v>
+      </c>
+      <c r="Y76">
+        <f t="shared" si="143"/>
+        <v>3.765113338802242E-4</v>
+      </c>
+      <c r="Z76">
+        <f t="shared" si="144"/>
+        <v>2.248134625761188E-4</v>
+      </c>
+      <c r="AA76">
+        <f t="shared" si="145"/>
+        <v>4.496269251522376E-4</v>
+      </c>
+      <c r="AB76">
+        <f t="shared" si="146"/>
+        <v>7.2157072912136258E-2</v>
+      </c>
+      <c r="AC76">
+        <f t="shared" si="147"/>
+        <v>7.2690745191944781E-2</v>
+      </c>
+      <c r="AD76">
+        <f t="shared" si="148"/>
+        <v>-4.2455250092604709E-2</v>
+      </c>
+      <c r="AE76">
+        <f t="shared" si="149"/>
+        <v>-4.276924828006376E-2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:31">
+      <c r="A77">
+        <v>0.01</v>
+      </c>
+      <c r="B77">
+        <v>0.99</v>
+      </c>
+      <c r="C77">
+        <v>0.05</v>
+      </c>
+      <c r="D77">
+        <v>0.1</v>
+      </c>
+      <c r="E77">
+        <f t="shared" ref="E77" si="182">E76-F74*X76</f>
+        <v>0.14996234886661197</v>
+      </c>
+      <c r="F77">
+        <f t="shared" ref="F77" si="183">F76-F74*Y76</f>
+        <v>0.19992469773322397</v>
+      </c>
+      <c r="G77">
+        <f t="shared" ref="G77" si="184">G76-F74*Z76</f>
+        <v>0.24995503730748478</v>
+      </c>
+      <c r="H77">
+        <f t="shared" ref="H77" si="185">H76-F74*AA76</f>
+        <v>0.29991007461496955</v>
+      </c>
+      <c r="I77">
+        <f t="shared" si="131"/>
+        <v>2.7490587216652998E-2</v>
+      </c>
+      <c r="J77">
+        <f t="shared" si="132"/>
+        <v>0.50687221401339022</v>
+      </c>
+      <c r="K77">
+        <f t="shared" si="133"/>
+        <v>4.2488759326871198E-2</v>
+      </c>
+      <c r="L77">
+        <f t="shared" si="134"/>
+        <v>0.51062059210493083</v>
+      </c>
+      <c r="M77">
+        <f t="shared" ref="M77" si="186">M76-F74*AB76</f>
+        <v>0.38556858541757277</v>
+      </c>
+      <c r="N77">
+        <f t="shared" ref="N77" si="187">N76-F74*AC76</f>
+        <v>0.43546185096161105</v>
+      </c>
+      <c r="O77">
+        <f t="shared" ref="O77" si="188">O76-F74*AD76</f>
+        <v>0.50849105001852091</v>
+      </c>
+      <c r="P77">
+        <f t="shared" ref="P77" si="189">P76-F74*AE76</f>
+        <v>0.55855384965601285</v>
+      </c>
+      <c r="Q77">
+        <f t="shared" si="135"/>
+        <v>0.41778979072174305</v>
+      </c>
+      <c r="R77">
+        <f t="shared" si="136"/>
+        <v>0.60295424541835718</v>
+      </c>
+      <c r="S77">
+        <f t="shared" si="137"/>
+        <v>0.54294908176272305</v>
+      </c>
+      <c r="T77">
+        <f t="shared" si="138"/>
+        <v>0.63249818224474286</v>
+      </c>
+      <c r="U77">
+        <f t="shared" si="139"/>
+        <v>0.17579736857982667</v>
+      </c>
+      <c r="V77">
+        <f t="shared" si="140"/>
+        <v>6.3903774849156547E-2</v>
+      </c>
+      <c r="W77">
+        <f t="shared" si="141"/>
+        <v>0.23970114342898322</v>
+      </c>
+      <c r="X77">
+        <f t="shared" si="142"/>
+        <v>1.5594043253671716E-4</v>
+      </c>
+      <c r="Y77">
+        <f t="shared" si="143"/>
+        <v>3.1188086507343433E-4</v>
+      </c>
+      <c r="Z77">
+        <f t="shared" si="144"/>
+        <v>1.9241233301920614E-4</v>
+      </c>
+      <c r="AA77">
+        <f t="shared" si="145"/>
+        <v>3.8482466603841228E-4</v>
+      </c>
+      <c r="AB77">
+        <f t="shared" si="146"/>
+        <v>7.1952283504215328E-2</v>
+      </c>
+      <c r="AC77">
+        <f t="shared" si="147"/>
+        <v>7.2484378883814093E-2</v>
+      </c>
+      <c r="AD77">
+        <f t="shared" si="148"/>
+        <v>-4.2120693409809694E-2</v>
+      </c>
+      <c r="AE77">
+        <f t="shared" si="149"/>
+        <v>-4.2432180763057388E-2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:31">
+      <c r="A78">
+        <v>0.01</v>
+      </c>
+      <c r="B78">
+        <v>0.99</v>
+      </c>
+      <c r="C78">
+        <v>0.05</v>
+      </c>
+      <c r="D78">
+        <v>0.1</v>
+      </c>
+      <c r="E78">
+        <v>0.15</v>
+      </c>
+      <c r="F78">
+        <v>0.2</v>
+      </c>
+      <c r="G78">
+        <v>0.25</v>
+      </c>
+      <c r="H78">
+        <v>0.3</v>
+      </c>
+      <c r="I78">
+        <f t="shared" si="131"/>
+        <v>2.7500000000000004E-2</v>
+      </c>
+      <c r="J78">
+        <f t="shared" si="132"/>
+        <v>0.50687456676453424</v>
+      </c>
+      <c r="K78">
+        <f t="shared" si="133"/>
+        <v>4.2499999999999996E-2</v>
+      </c>
+      <c r="L78">
+        <f t="shared" si="134"/>
+        <v>0.51062340100496373</v>
+      </c>
+      <c r="M78">
+        <v>0.4</v>
+      </c>
+      <c r="N78">
+        <v>0.45</v>
+      </c>
+      <c r="O78">
+        <v>0.5</v>
+      </c>
+      <c r="P78">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="Q78">
+        <f t="shared" si="135"/>
+        <v>0.43253035715804738</v>
+      </c>
+      <c r="R78">
+        <f t="shared" si="136"/>
+        <v>0.60647773220672796</v>
+      </c>
+      <c r="S78">
+        <f t="shared" si="137"/>
+        <v>0.53428015393499717</v>
+      </c>
+      <c r="T78">
+        <f t="shared" si="138"/>
+        <v>0.63048083545063482</v>
+      </c>
+      <c r="U78">
+        <f t="shared" si="139"/>
+        <v>0.17789284250924053</v>
+      </c>
+      <c r="V78">
+        <f t="shared" si="140"/>
+        <v>6.4627014839136757E-2</v>
+      </c>
+      <c r="W78">
+        <f t="shared" si="141"/>
+        <v>0.24251985734837728</v>
+      </c>
+      <c r="X78">
+        <f t="shared" si="142"/>
+        <v>1.882556669401121E-4</v>
+      </c>
+      <c r="Y78">
+        <f t="shared" si="143"/>
+        <v>3.765113338802242E-4</v>
+      </c>
+      <c r="Z78">
+        <f t="shared" si="144"/>
+        <v>2.248134625761188E-4</v>
+      </c>
+      <c r="AA78">
+        <f t="shared" si="145"/>
+        <v>4.496269251522376E-4</v>
+      </c>
+      <c r="AB78">
+        <f t="shared" si="146"/>
+        <v>7.2157072912136258E-2</v>
+      </c>
+      <c r="AC78">
+        <f t="shared" si="147"/>
+        <v>7.2690745191944781E-2</v>
+      </c>
+      <c r="AD78">
+        <f t="shared" si="148"/>
+        <v>-4.2455250092604709E-2</v>
+      </c>
+      <c r="AE78">
+        <f t="shared" si="149"/>
+        <v>-4.276924828006376E-2</v>
       </c>
     </row>
   </sheetData>
